--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
@@ -1114,7 +1114,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1787,6 +1787,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1925,81 +2000,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2045,6 +2045,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2054,15 +2165,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2116,108 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2542,19 +2542,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3162300"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="3314700"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,27 +2572,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2600,27 +2588,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2637,19 +2613,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="3362325"/>
+        <a:xfrm rot="20636203">
+          <a:off x="981075" y="3514725"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2667,27 +2643,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2695,27 +2659,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2732,19 +2684,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3371850"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="3524250"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2762,27 +2714,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2790,27 +2730,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3474,19 +3402,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:rowOff>504825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="3476625"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2143125" y="3629025"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3504,27 +3432,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3532,27 +3448,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3564,19 +3468,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="8743950"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2466975" y="8362950"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3594,27 +3498,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3622,27 +3514,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3946,42 +3826,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -3992,7 +3872,7 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -4001,7 +3881,7 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -4013,7 +3893,7 @@
       <c r="K25" s="86"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -4022,7 +3902,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -4031,7 +3911,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="23"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -4040,7 +3920,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="32"/>
@@ -4048,7 +3928,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="22"/>
       <c r="G30" s="24"/>
       <c r="H30" s="22"/>
@@ -4057,7 +3937,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="22"/>
       <c r="G31" s="24"/>
       <c r="H31" s="22"/>
@@ -4066,7 +3946,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="22"/>
       <c r="G32" s="24"/>
       <c r="H32" s="22"/>
@@ -4075,7 +3955,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="32"/>
@@ -4087,7 +3967,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="32"/>
@@ -4102,515 +3982,515 @@
       <c r="R34" s="88"/>
       <c r="S34" s="88"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="88"/>
       <c r="R35" s="88"/>
       <c r="S35" s="88"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="89"/>
       <c r="P36" s="88"/>
       <c r="Q36" s="89"/>
       <c r="R36" s="88"/>
       <c r="S36" s="39"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="90"/>
       <c r="P37" s="91"/>
       <c r="Q37" s="90"/>
       <c r="R37" s="91"/>
       <c r="S37" s="90"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="91"/>
       <c r="P38" s="91"/>
       <c r="Q38" s="91"/>
       <c r="R38" s="91"/>
       <c r="S38" s="91"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="91"/>
       <c r="P39" s="91"/>
       <c r="Q39" s="91"/>
       <c r="R39" s="91"/>
       <c r="S39" s="91"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -4638,170 +4518,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="120" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="129" t="s">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="92" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="117" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="120">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="122"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="101" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104" t="str">
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="131"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="107" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="106"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4815,7 +4695,7 @@
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="5"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -4827,1191 +4707,1035 @@
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
     </row>
-    <row r="7" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="110" t="s">
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="110" t="s">
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="112"/>
-    </row>
-    <row r="8" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="137"/>
+    </row>
+    <row r="8" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43336</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="150" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="156" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="159" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="162" t="s">
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="158"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="146"/>
-    </row>
-    <row r="10" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="100"/>
+    </row>
+    <row r="10" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="146"/>
-    </row>
-    <row r="11" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="100"/>
+    </row>
+    <row r="11" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="144"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="146"/>
-    </row>
-    <row r="12" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="100"/>
+    </row>
+    <row r="12" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="146"/>
-    </row>
-    <row r="13" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="100"/>
+    </row>
+    <row r="13" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="146"/>
-    </row>
-    <row r="14" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="100"/>
+    </row>
+    <row r="14" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="146"/>
-    </row>
-    <row r="15" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="100"/>
+    </row>
+    <row r="15" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="146"/>
-    </row>
-    <row r="16" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="100"/>
+    </row>
+    <row r="16" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="146"/>
-    </row>
-    <row r="17" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="100"/>
+    </row>
+    <row r="17" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="146"/>
-    </row>
-    <row r="18" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
+    </row>
+    <row r="18" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="146"/>
-    </row>
-    <row r="19" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="100"/>
+    </row>
+    <row r="19" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="146"/>
-    </row>
-    <row r="20" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
+    </row>
+    <row r="20" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="146"/>
-    </row>
-    <row r="21" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="100"/>
+    </row>
+    <row r="21" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="146"/>
-    </row>
-    <row r="22" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="100"/>
+    </row>
+    <row r="22" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="146"/>
-    </row>
-    <row r="23" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="100"/>
+    </row>
+    <row r="23" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="146"/>
-    </row>
-    <row r="24" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
+    </row>
+    <row r="24" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="146"/>
-    </row>
-    <row r="25" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
+    </row>
+    <row r="25" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="146"/>
-    </row>
-    <row r="26" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100"/>
+    </row>
+    <row r="26" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="146"/>
-    </row>
-    <row r="27" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="100"/>
+    </row>
+    <row r="27" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="146"/>
-    </row>
-    <row r="28" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
+    </row>
+    <row r="28" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="146"/>
-    </row>
-    <row r="29" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="100"/>
+    </row>
+    <row r="29" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="146"/>
-    </row>
-    <row r="30" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="100"/>
+    </row>
+    <row r="30" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="146"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="100"/>
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="146"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="146"/>
-    </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
+    </row>
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="146"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="E2:N2"/>
@@ -6035,6 +5759,162 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6055,7 +5935,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="74" customWidth="1"/>
@@ -6190,26 +6070,26 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
       <c r="O1" s="168" t="s">
         <v>82</v>
       </c>
@@ -6220,24 +6100,24 @@
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
       <c r="AA1" s="163" t="s">
         <v>83</v>
       </c>
       <c r="AB1" s="164"/>
-      <c r="AC1" s="92" t="str">
+      <c r="AC1" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
       <c r="AG1" s="165">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -6248,49 +6128,49 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="171"/>
       <c r="P2" s="172"/>
       <c r="Q2" s="172"/>
       <c r="R2" s="173"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
       <c r="AA2" s="163" t="s">
         <v>84</v>
       </c>
       <c r="AB2" s="164"/>
-      <c r="AC2" s="92" t="str">
+      <c r="AC2" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="119"/>
       <c r="AG2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -6301,47 +6181,47 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
       <c r="O3" s="174"/>
       <c r="P3" s="175"/>
       <c r="Q3" s="175"/>
       <c r="R3" s="176"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
       <c r="AA3" s="163"/>
       <c r="AB3" s="164"/>
-      <c r="AC3" s="92" t="str">
+      <c r="AC3" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="94"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -6352,7 +6232,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -6389,7 +6269,7 @@
       <c r="AH4" s="43"/>
       <c r="AI4" s="43"/>
     </row>
-    <row r="5" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -6428,7 +6308,7 @@
       <c r="AH5" s="43"/>
       <c r="AI5" s="43"/>
     </row>
-    <row r="6" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -6465,7 +6345,7 @@
       <c r="AH6" s="43"/>
       <c r="AI6" s="43"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="41" t="s">
         <v>110</v>
@@ -6504,7 +6384,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" ht="15" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -6541,7 +6421,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" ht="15" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -6578,7 +6458,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -6615,7 +6495,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -6652,7 +6532,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -6689,7 +6569,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="15" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -6726,7 +6606,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" ht="15" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -6763,7 +6643,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="58"/>
       <c r="C15" s="48"/>
@@ -6800,7 +6680,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" ht="15" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="43"/>
       <c r="C16" s="47"/>
@@ -6837,7 +6717,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="43"/>
       <c r="C17" s="47"/>
@@ -6874,7 +6754,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="43"/>
       <c r="C18" s="47"/>
@@ -6911,7 +6791,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="43"/>
       <c r="C19" s="47"/>
@@ -6948,7 +6828,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="43"/>
       <c r="C20" s="47"/>
@@ -6985,7 +6865,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="43"/>
       <c r="C21" s="47"/>
@@ -7022,7 +6902,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="43"/>
       <c r="C22" s="47"/>
@@ -7059,7 +6939,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="58"/>
       <c r="C23" s="48"/>
@@ -7096,7 +6976,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="43"/>
       <c r="C24" s="47"/>
@@ -7133,7 +7013,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="43"/>
       <c r="C25" s="47"/>
@@ -7170,7 +7050,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="43"/>
       <c r="C26" s="47"/>
@@ -7207,7 +7087,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="43"/>
       <c r="C27" s="47"/>
@@ -7244,7 +7124,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="43"/>
       <c r="C28" s="47"/>
@@ -7281,7 +7161,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="43"/>
       <c r="C29" s="47"/>
@@ -7318,7 +7198,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="59"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -7355,7 +7235,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="63"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
@@ -7392,7 +7272,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="63"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="59"/>
       <c r="B32" s="66"/>
       <c r="C32" s="47"/>
@@ -7429,7 +7309,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="63"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="59"/>
       <c r="B33" s="66"/>
       <c r="C33" s="47"/>
@@ -7466,7 +7346,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="63"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="59"/>
       <c r="B34" s="66"/>
       <c r="C34" s="47"/>
@@ -7503,7 +7383,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="63"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="59"/>
       <c r="B35" s="66"/>
       <c r="C35" s="47"/>
@@ -7540,7 +7420,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="63"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -7577,7 +7457,7 @@
       <c r="AH36" s="71"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7609,7 +7489,7 @@
       <c r="AH37" s="79"/>
       <c r="AI37" s="75"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
       <c r="U38" s="76"/>
@@ -7628,7 +7508,7 @@
       <c r="AH38" s="82"/>
       <c r="AI38" s="75"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="83"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
@@ -7648,7 +7528,7 @@
       <c r="AH39" s="82"/>
       <c r="AI39" s="75"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
       <c r="U40" s="75"/>
@@ -7667,7 +7547,7 @@
       <c r="AH40" s="82"/>
       <c r="AI40" s="75"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -7681,37 +7561,37 @@
       <c r="AH41" s="82"/>
       <c r="AI41" s="75"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="75"/>
       <c r="AF42" s="80"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="82"/>
       <c r="AI42" s="75"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="75"/>
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
       <c r="AH43" s="82"/>
       <c r="AI43" s="75"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="72"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="72"/>
       <c r="AG45" s="84"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="84"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="V48" s="72"/>
@@ -7724,7 +7604,7 @@
       <c r="AC48" s="72"/>
       <c r="AD48" s="72"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="72"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
@@ -7739,10 +7619,10 @@
       <c r="AD49" s="72"/>
       <c r="AG49" s="84"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="72"/>
     </row>
-    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -7775,7 +7655,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="83"/>
     </row>
-    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -7810,23 +7690,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -7848,59 +7728,59 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="120" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="92" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
       <c r="AG1" s="165">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -7911,49 +7791,49 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="92" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="119"/>
       <c r="AG2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -7964,47 +7844,47 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="123" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="92" t="str">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="117" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="94"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -8015,7 +7895,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8057,857 +7937,857 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
     </row>
-    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" s="7" customFormat="1">
       <c r="B5" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="221" t="s">
+    <row r="6" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="7" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="8" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C8" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="222"/>
-      <c r="E8" s="221" t="s">
+      <c r="D8" s="180"/>
+      <c r="E8" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="221" t="s">
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="222"/>
-      <c r="Q8" s="221" t="s">
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="222"/>
-      <c r="S8" s="221" t="s">
+      <c r="R8" s="180"/>
+      <c r="S8" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="225"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="221" t="s">
+      <c r="T8" s="179"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="180"/>
+      <c r="Y8" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="225"/>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="221" t="s">
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="180"/>
+      <c r="AG8" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="225"/>
-      <c r="AI8" s="222"/>
-      <c r="AJ8" s="221" t="s">
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
+      <c r="AJ8" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="225"/>
-      <c r="AL8" s="225"/>
-      <c r="AM8" s="222"/>
-    </row>
-    <row r="9" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="226"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="226"/>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="226"/>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="226"/>
-      <c r="AF9" s="224"/>
-      <c r="AG9" s="223"/>
-      <c r="AH9" s="226"/>
-      <c r="AI9" s="224"/>
-      <c r="AJ9" s="223"/>
-      <c r="AK9" s="226"/>
-      <c r="AL9" s="226"/>
-      <c r="AM9" s="224"/>
-    </row>
-    <row r="10" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="227" t="s">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="180"/>
+    </row>
+    <row r="9" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C9" s="181"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="183"/>
+      <c r="AJ9" s="181"/>
+      <c r="AK9" s="182"/>
+      <c r="AL9" s="182"/>
+      <c r="AM9" s="183"/>
+    </row>
+    <row r="10" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
+      <c r="C10" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="229"/>
-      <c r="E10" s="227" t="s">
+      <c r="D10" s="189"/>
+      <c r="E10" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="227" t="s">
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="228"/>
-      <c r="O10" s="228"/>
-      <c r="P10" s="229"/>
-      <c r="Q10" s="208" t="s">
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="209"/>
-      <c r="S10" s="208" t="s">
+      <c r="R10" s="186"/>
+      <c r="S10" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="208" t="s">
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="210"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="208" t="s">
+      <c r="Z10" s="185"/>
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="185"/>
+      <c r="AD10" s="185"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="209"/>
-      <c r="AJ10" s="208"/>
-      <c r="AK10" s="210"/>
-      <c r="AL10" s="210"/>
-      <c r="AM10" s="209"/>
-    </row>
-    <row r="11" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="230"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="230"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="231"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="232"/>
-      <c r="Q11" s="208" t="s">
+      <c r="AH10" s="185"/>
+      <c r="AI10" s="186"/>
+      <c r="AJ10" s="184"/>
+      <c r="AK10" s="185"/>
+      <c r="AL10" s="185"/>
+      <c r="AM10" s="186"/>
+    </row>
+    <row r="11" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
+      <c r="C11" s="190"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="209"/>
-      <c r="S11" s="208" t="s">
+      <c r="R11" s="186"/>
+      <c r="S11" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="210"/>
-      <c r="U11" s="210"/>
-      <c r="V11" s="210"/>
-      <c r="W11" s="210"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="208" t="s">
+      <c r="T11" s="185"/>
+      <c r="U11" s="185"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="210"/>
-      <c r="AA11" s="210"/>
-      <c r="AB11" s="210"/>
-      <c r="AC11" s="210"/>
-      <c r="AD11" s="210"/>
-      <c r="AE11" s="210"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="208" t="s">
+      <c r="Z11" s="185"/>
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="185"/>
+      <c r="AD11" s="185"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="210"/>
-      <c r="AI11" s="209"/>
-      <c r="AJ11" s="208"/>
-      <c r="AK11" s="210"/>
-      <c r="AL11" s="210"/>
-      <c r="AM11" s="209"/>
-    </row>
-    <row r="12" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="233"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="208" t="s">
+      <c r="AH11" s="185"/>
+      <c r="AI11" s="186"/>
+      <c r="AJ11" s="184"/>
+      <c r="AK11" s="185"/>
+      <c r="AL11" s="185"/>
+      <c r="AM11" s="186"/>
+    </row>
+    <row r="12" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
+      <c r="C12" s="193"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="209"/>
-      <c r="S12" s="208" t="s">
+      <c r="R12" s="186"/>
+      <c r="S12" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="208" t="s">
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="210"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="210"/>
-      <c r="AC12" s="210"/>
-      <c r="AD12" s="210"/>
-      <c r="AE12" s="210"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="208" t="s">
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="210"/>
-      <c r="AI12" s="209"/>
-      <c r="AJ12" s="208"/>
-      <c r="AK12" s="210"/>
-      <c r="AL12" s="210"/>
-      <c r="AM12" s="209"/>
-    </row>
-    <row r="13" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="208" t="s">
+      <c r="AH12" s="185"/>
+      <c r="AI12" s="186"/>
+      <c r="AJ12" s="184"/>
+      <c r="AK12" s="185"/>
+      <c r="AL12" s="185"/>
+      <c r="AM12" s="186"/>
+    </row>
+    <row r="13" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C13" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="208" t="s">
+      <c r="D13" s="186"/>
+      <c r="E13" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="208" t="s">
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="209"/>
-      <c r="Q13" s="208" t="s">
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="209"/>
-      <c r="S13" s="208" t="s">
+      <c r="R13" s="186"/>
+      <c r="S13" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="210"/>
-      <c r="U13" s="210"/>
-      <c r="V13" s="210"/>
-      <c r="W13" s="210"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="208" t="s">
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="Z13" s="210"/>
-      <c r="AA13" s="210"/>
-      <c r="AB13" s="210"/>
-      <c r="AC13" s="210"/>
-      <c r="AD13" s="210"/>
-      <c r="AE13" s="210"/>
-      <c r="AF13" s="209"/>
-      <c r="AG13" s="208" t="s">
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AH13" s="210"/>
-      <c r="AI13" s="209"/>
-      <c r="AJ13" s="208"/>
-      <c r="AK13" s="210"/>
-      <c r="AL13" s="210"/>
-      <c r="AM13" s="209"/>
-    </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="227" t="s">
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="186"/>
+      <c r="AJ13" s="184"/>
+      <c r="AK13" s="185"/>
+      <c r="AL13" s="185"/>
+      <c r="AM13" s="186"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
+      <c r="C14" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="227" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="228"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="227" t="s">
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="228"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="228"/>
-      <c r="N14" s="228"/>
-      <c r="O14" s="228"/>
-      <c r="P14" s="229"/>
-      <c r="Q14" s="208" t="s">
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="209"/>
-      <c r="S14" s="208" t="s">
+      <c r="R14" s="186"/>
+      <c r="S14" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="210"/>
-      <c r="U14" s="210"/>
-      <c r="V14" s="210"/>
-      <c r="W14" s="210"/>
-      <c r="X14" s="209"/>
-      <c r="Y14" s="208" t="s">
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="210"/>
-      <c r="AA14" s="210"/>
-      <c r="AB14" s="210"/>
-      <c r="AC14" s="210"/>
-      <c r="AD14" s="210"/>
-      <c r="AE14" s="210"/>
-      <c r="AF14" s="209"/>
-      <c r="AG14" s="208" t="s">
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AH14" s="210"/>
-      <c r="AI14" s="209"/>
-      <c r="AJ14" s="208" t="s">
+      <c r="AH14" s="185"/>
+      <c r="AI14" s="186"/>
+      <c r="AJ14" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AK14" s="210"/>
-      <c r="AL14" s="210"/>
-      <c r="AM14" s="209"/>
-    </row>
-    <row r="15" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="230"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
-      <c r="O15" s="231"/>
-      <c r="P15" s="232"/>
-      <c r="Q15" s="208" t="s">
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="185"/>
+      <c r="AM14" s="186"/>
+    </row>
+    <row r="15" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
+      <c r="C15" s="190"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="209"/>
-      <c r="S15" s="208" t="s">
+      <c r="R15" s="186"/>
+      <c r="S15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="210"/>
-      <c r="U15" s="210"/>
-      <c r="V15" s="210"/>
-      <c r="W15" s="210"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="208" t="s">
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="210"/>
-      <c r="AD15" s="210"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="208" t="s">
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="209"/>
-      <c r="AJ15" s="208" t="s">
+      <c r="AH15" s="185"/>
+      <c r="AI15" s="186"/>
+      <c r="AJ15" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AK15" s="210"/>
-      <c r="AL15" s="210"/>
-      <c r="AM15" s="209"/>
-    </row>
-    <row r="16" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="233"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="208" t="s">
+      <c r="AK15" s="185"/>
+      <c r="AL15" s="185"/>
+      <c r="AM15" s="186"/>
+    </row>
+    <row r="16" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
+      <c r="C16" s="193"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="209"/>
-      <c r="S16" s="208" t="s">
+      <c r="R16" s="186"/>
+      <c r="S16" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="210"/>
-      <c r="U16" s="210"/>
-      <c r="V16" s="210"/>
-      <c r="W16" s="210"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="208" t="s">
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="210"/>
-      <c r="AA16" s="210"/>
-      <c r="AB16" s="210"/>
-      <c r="AC16" s="210"/>
-      <c r="AD16" s="210"/>
-      <c r="AE16" s="210"/>
-      <c r="AF16" s="209"/>
-      <c r="AG16" s="208" t="s">
+      <c r="Z16" s="185"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="210"/>
-      <c r="AI16" s="209"/>
-      <c r="AJ16" s="208" t="s">
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="186"/>
+      <c r="AJ16" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" s="210"/>
-      <c r="AL16" s="210"/>
-      <c r="AM16" s="209"/>
-    </row>
-    <row r="17" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="227" t="s">
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="186"/>
+    </row>
+    <row r="17" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1">
+      <c r="C17" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="229"/>
-      <c r="E17" s="227" t="s">
+      <c r="D17" s="189"/>
+      <c r="E17" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="227" t="s">
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="228"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
-      <c r="N17" s="228"/>
-      <c r="O17" s="228"/>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="208" t="s">
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="209"/>
-      <c r="S17" s="208" t="s">
+      <c r="R17" s="186"/>
+      <c r="S17" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="210"/>
-      <c r="U17" s="210"/>
-      <c r="V17" s="210"/>
-      <c r="W17" s="210"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="208" t="s">
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="210"/>
-      <c r="AA17" s="210"/>
-      <c r="AB17" s="210"/>
-      <c r="AC17" s="210"/>
-      <c r="AD17" s="210"/>
-      <c r="AE17" s="210"/>
-      <c r="AF17" s="209"/>
-      <c r="AG17" s="208" t="s">
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AH17" s="210"/>
-      <c r="AI17" s="209"/>
-      <c r="AJ17" s="208" t="s">
+      <c r="AH17" s="185"/>
+      <c r="AI17" s="186"/>
+      <c r="AJ17" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="AK17" s="210"/>
-      <c r="AL17" s="210"/>
-      <c r="AM17" s="209"/>
-    </row>
-    <row r="18" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="233"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="208" t="s">
+      <c r="AK17" s="185"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="186"/>
+    </row>
+    <row r="18" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1">
+      <c r="C18" s="193"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="R18" s="209"/>
-      <c r="S18" s="208" t="s">
+      <c r="R18" s="186"/>
+      <c r="S18" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="210"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="208" t="s">
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="210"/>
-      <c r="AD18" s="210"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="208" t="s">
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH18" s="210"/>
-      <c r="AI18" s="209"/>
-      <c r="AJ18" s="208"/>
-      <c r="AK18" s="210"/>
-      <c r="AL18" s="210"/>
-      <c r="AM18" s="209"/>
-    </row>
-    <row r="19" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="227" t="s">
+      <c r="AH18" s="185"/>
+      <c r="AI18" s="186"/>
+      <c r="AJ18" s="184"/>
+      <c r="AK18" s="185"/>
+      <c r="AL18" s="185"/>
+      <c r="AM18" s="186"/>
+    </row>
+    <row r="19" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C19" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="229"/>
-      <c r="E19" s="227" t="s">
+      <c r="D19" s="189"/>
+      <c r="E19" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="227" t="s">
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="228"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="228"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="208" t="s">
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="209"/>
-      <c r="S19" s="208" t="s">
+      <c r="R19" s="186"/>
+      <c r="S19" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="210"/>
-      <c r="U19" s="210"/>
-      <c r="V19" s="210"/>
-      <c r="W19" s="210"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="208" t="s">
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="185"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="Z19" s="210"/>
-      <c r="AA19" s="210"/>
-      <c r="AB19" s="210"/>
-      <c r="AC19" s="210"/>
-      <c r="AD19" s="210"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="209"/>
-      <c r="AG19" s="208" t="s">
+      <c r="Z19" s="185"/>
+      <c r="AA19" s="185"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="185"/>
+      <c r="AD19" s="185"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH19" s="210"/>
-      <c r="AI19" s="209"/>
-      <c r="AJ19" s="208"/>
-      <c r="AK19" s="210"/>
-      <c r="AL19" s="210"/>
-      <c r="AM19" s="209"/>
-    </row>
-    <row r="20" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="230"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="208" t="s">
+      <c r="AH19" s="185"/>
+      <c r="AI19" s="186"/>
+      <c r="AJ19" s="184"/>
+      <c r="AK19" s="185"/>
+      <c r="AL19" s="185"/>
+      <c r="AM19" s="186"/>
+    </row>
+    <row r="20" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C20" s="190"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="209"/>
-      <c r="S20" s="208" t="s">
+      <c r="R20" s="186"/>
+      <c r="S20" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="210"/>
-      <c r="U20" s="210"/>
-      <c r="V20" s="210"/>
-      <c r="W20" s="210"/>
-      <c r="X20" s="209"/>
-      <c r="Y20" s="208" t="s">
+      <c r="T20" s="185"/>
+      <c r="U20" s="185"/>
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="Z20" s="210"/>
-      <c r="AA20" s="210"/>
-      <c r="AB20" s="210"/>
-      <c r="AC20" s="210"/>
-      <c r="AD20" s="210"/>
-      <c r="AE20" s="210"/>
-      <c r="AF20" s="209"/>
-      <c r="AG20" s="208" t="s">
+      <c r="Z20" s="185"/>
+      <c r="AA20" s="185"/>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="185"/>
+      <c r="AD20" s="185"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH20" s="210"/>
-      <c r="AI20" s="209"/>
-      <c r="AJ20" s="208"/>
-      <c r="AK20" s="210"/>
-      <c r="AL20" s="210"/>
-      <c r="AM20" s="209"/>
-    </row>
-    <row r="21" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="233"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="208" t="s">
+      <c r="AH20" s="185"/>
+      <c r="AI20" s="186"/>
+      <c r="AJ20" s="184"/>
+      <c r="AK20" s="185"/>
+      <c r="AL20" s="185"/>
+      <c r="AM20" s="186"/>
+    </row>
+    <row r="21" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C21" s="193"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="209"/>
-      <c r="S21" s="208" t="s">
+      <c r="R21" s="186"/>
+      <c r="S21" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="210"/>
-      <c r="U21" s="210"/>
-      <c r="V21" s="210"/>
-      <c r="W21" s="210"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="208" t="s">
+      <c r="T21" s="185"/>
+      <c r="U21" s="185"/>
+      <c r="V21" s="185"/>
+      <c r="W21" s="185"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="210"/>
-      <c r="AA21" s="210"/>
-      <c r="AB21" s="210"/>
-      <c r="AC21" s="210"/>
-      <c r="AD21" s="210"/>
-      <c r="AE21" s="210"/>
-      <c r="AF21" s="209"/>
-      <c r="AG21" s="208" t="s">
+      <c r="Z21" s="185"/>
+      <c r="AA21" s="185"/>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="185"/>
+      <c r="AD21" s="185"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AH21" s="210"/>
-      <c r="AI21" s="209"/>
-      <c r="AJ21" s="208"/>
-      <c r="AK21" s="210"/>
-      <c r="AL21" s="210"/>
-      <c r="AM21" s="209"/>
-    </row>
-    <row r="22" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="227" t="s">
+      <c r="AH21" s="185"/>
+      <c r="AI21" s="186"/>
+      <c r="AJ21" s="184"/>
+      <c r="AK21" s="185"/>
+      <c r="AL21" s="185"/>
+      <c r="AM21" s="186"/>
+    </row>
+    <row r="22" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C22" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="229"/>
-      <c r="E22" s="227" t="s">
+      <c r="D22" s="189"/>
+      <c r="E22" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="227" t="s">
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="228"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="229"/>
-      <c r="Q22" s="211" t="s">
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="211"/>
-      <c r="S22" s="211" t="s">
+      <c r="R22" s="196"/>
+      <c r="S22" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211" t="s">
+      <c r="T22" s="196"/>
+      <c r="U22" s="196"/>
+      <c r="V22" s="196"/>
+      <c r="W22" s="196"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="211"/>
-      <c r="AC22" s="211"/>
-      <c r="AD22" s="211"/>
-      <c r="AE22" s="211"/>
-      <c r="AF22" s="211"/>
-      <c r="AG22" s="211" t="s">
+      <c r="Z22" s="196"/>
+      <c r="AA22" s="196"/>
+      <c r="AB22" s="196"/>
+      <c r="AC22" s="196"/>
+      <c r="AD22" s="196"/>
+      <c r="AE22" s="196"/>
+      <c r="AF22" s="196"/>
+      <c r="AG22" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="AH22" s="211"/>
-      <c r="AI22" s="211"/>
-      <c r="AJ22" s="208"/>
-      <c r="AK22" s="210"/>
-      <c r="AL22" s="210"/>
-      <c r="AM22" s="209"/>
-    </row>
-    <row r="23" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="230"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="232"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="231"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="231"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="211" t="s">
+      <c r="AH22" s="196"/>
+      <c r="AI22" s="196"/>
+      <c r="AJ22" s="184"/>
+      <c r="AK22" s="185"/>
+      <c r="AL22" s="185"/>
+      <c r="AM22" s="186"/>
+    </row>
+    <row r="23" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C23" s="190"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="R23" s="211"/>
-      <c r="S23" s="211" t="s">
+      <c r="R23" s="196"/>
+      <c r="S23" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211" t="s">
+      <c r="T23" s="196"/>
+      <c r="U23" s="196"/>
+      <c r="V23" s="196"/>
+      <c r="W23" s="196"/>
+      <c r="X23" s="196"/>
+      <c r="Y23" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="211"/>
-      <c r="AC23" s="211"/>
-      <c r="AD23" s="211"/>
-      <c r="AE23" s="211"/>
-      <c r="AF23" s="211"/>
-      <c r="AG23" s="211" t="s">
+      <c r="Z23" s="196"/>
+      <c r="AA23" s="196"/>
+      <c r="AB23" s="196"/>
+      <c r="AC23" s="196"/>
+      <c r="AD23" s="196"/>
+      <c r="AE23" s="196"/>
+      <c r="AF23" s="196"/>
+      <c r="AG23" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="AH23" s="211"/>
-      <c r="AI23" s="211"/>
-      <c r="AJ23" s="208"/>
-      <c r="AK23" s="210"/>
-      <c r="AL23" s="210"/>
-      <c r="AM23" s="209"/>
-    </row>
-    <row r="24" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="233"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="211" t="s">
+      <c r="AH23" s="196"/>
+      <c r="AI23" s="196"/>
+      <c r="AJ23" s="184"/>
+      <c r="AK23" s="185"/>
+      <c r="AL23" s="185"/>
+      <c r="AM23" s="186"/>
+    </row>
+    <row r="24" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C24" s="193"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211" t="s">
+      <c r="R24" s="196"/>
+      <c r="S24" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211" t="s">
+      <c r="T24" s="196"/>
+      <c r="U24" s="196"/>
+      <c r="V24" s="196"/>
+      <c r="W24" s="196"/>
+      <c r="X24" s="196"/>
+      <c r="Y24" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="211"/>
-      <c r="AG24" s="211" t="s">
+      <c r="Z24" s="196"/>
+      <c r="AA24" s="196"/>
+      <c r="AB24" s="196"/>
+      <c r="AC24" s="196"/>
+      <c r="AD24" s="196"/>
+      <c r="AE24" s="196"/>
+      <c r="AF24" s="196"/>
+      <c r="AG24" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="211"/>
-      <c r="AJ24" s="208"/>
-      <c r="AK24" s="210"/>
-      <c r="AL24" s="210"/>
-      <c r="AM24" s="209"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AH24" s="196"/>
+      <c r="AI24" s="196"/>
+      <c r="AJ24" s="184"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="186"/>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -8949,7 +8829,7 @@
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>47</v>
@@ -8993,151 +8873,151 @@
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40">
       <c r="A27" s="7"/>
       <c r="B27" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205" t="s">
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="206"/>
-      <c r="R27" s="206"/>
-      <c r="S27" s="206"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="206"/>
-      <c r="V27" s="206"/>
-      <c r="W27" s="206"/>
-      <c r="X27" s="206"/>
-      <c r="Y27" s="206"/>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="206"/>
-      <c r="AB27" s="206"/>
-      <c r="AC27" s="206"/>
-      <c r="AD27" s="206"/>
-      <c r="AE27" s="206"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="206"/>
-      <c r="AH27" s="206"/>
-      <c r="AI27" s="207"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="211"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40">
       <c r="A28" s="7"/>
       <c r="B28" s="9">
         <v>1</v>
       </c>
-      <c r="C28" s="181" t="s">
+      <c r="C28" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="178" t="s">
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="179"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="180"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="216"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="216"/>
+      <c r="S28" s="216"/>
+      <c r="T28" s="216"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="216"/>
+      <c r="AD28" s="216"/>
+      <c r="AE28" s="216"/>
+      <c r="AF28" s="216"/>
+      <c r="AG28" s="216"/>
+      <c r="AH28" s="216"/>
+      <c r="AI28" s="217"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40">
       <c r="A29" s="7"/>
       <c r="B29" s="10">
         <v>2</v>
       </c>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="178" t="s">
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="179"/>
-      <c r="T29" s="179"/>
-      <c r="U29" s="179"/>
-      <c r="V29" s="179"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="179"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="179"/>
-      <c r="AD29" s="179"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="180"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="216"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="216"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="216"/>
+      <c r="S29" s="216"/>
+      <c r="T29" s="216"/>
+      <c r="U29" s="216"/>
+      <c r="V29" s="216"/>
+      <c r="W29" s="216"/>
+      <c r="X29" s="216"/>
+      <c r="Y29" s="216"/>
+      <c r="Z29" s="216"/>
+      <c r="AA29" s="216"/>
+      <c r="AB29" s="216"/>
+      <c r="AC29" s="216"/>
+      <c r="AD29" s="216"/>
+      <c r="AE29" s="216"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="216"/>
+      <c r="AH29" s="216"/>
+      <c r="AI29" s="217"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40">
       <c r="A30" s="7"/>
       <c r="B30" s="10">
         <v>3</v>
@@ -9151,330 +9031,330 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="178" t="s">
+      <c r="J30" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="179"/>
-      <c r="T30" s="179"/>
-      <c r="U30" s="179"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
-      <c r="Z30" s="179"/>
-      <c r="AA30" s="179"/>
-      <c r="AB30" s="179"/>
-      <c r="AC30" s="179"/>
-      <c r="AD30" s="179"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="180"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="216"/>
+      <c r="S30" s="216"/>
+      <c r="T30" s="216"/>
+      <c r="U30" s="216"/>
+      <c r="V30" s="216"/>
+      <c r="W30" s="216"/>
+      <c r="X30" s="216"/>
+      <c r="Y30" s="216"/>
+      <c r="Z30" s="216"/>
+      <c r="AA30" s="216"/>
+      <c r="AB30" s="216"/>
+      <c r="AC30" s="216"/>
+      <c r="AD30" s="216"/>
+      <c r="AE30" s="216"/>
+      <c r="AF30" s="216"/>
+      <c r="AG30" s="216"/>
+      <c r="AH30" s="216"/>
+      <c r="AI30" s="217"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40">
       <c r="A31" s="7"/>
       <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="178" t="s">
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="179"/>
-      <c r="Q31" s="179"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="179"/>
-      <c r="T31" s="179"/>
-      <c r="U31" s="179"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="179"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="179"/>
-      <c r="Z31" s="179"/>
-      <c r="AA31" s="179"/>
-      <c r="AB31" s="179"/>
-      <c r="AC31" s="179"/>
-      <c r="AD31" s="179"/>
-      <c r="AE31" s="179"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="179"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="180"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="216"/>
+      <c r="M31" s="216"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="216"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="216"/>
+      <c r="S31" s="216"/>
+      <c r="T31" s="216"/>
+      <c r="U31" s="216"/>
+      <c r="V31" s="216"/>
+      <c r="W31" s="216"/>
+      <c r="X31" s="216"/>
+      <c r="Y31" s="216"/>
+      <c r="Z31" s="216"/>
+      <c r="AA31" s="216"/>
+      <c r="AB31" s="216"/>
+      <c r="AC31" s="216"/>
+      <c r="AD31" s="216"/>
+      <c r="AE31" s="216"/>
+      <c r="AF31" s="216"/>
+      <c r="AG31" s="216"/>
+      <c r="AH31" s="216"/>
+      <c r="AI31" s="217"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40">
       <c r="A32" s="7"/>
       <c r="B32" s="10">
         <v>5</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="178" t="s">
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="179"/>
-      <c r="S32" s="179"/>
-      <c r="T32" s="179"/>
-      <c r="U32" s="179"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="179"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="179"/>
-      <c r="AC32" s="179"/>
-      <c r="AD32" s="179"/>
-      <c r="AE32" s="179"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="180"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="216"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="216"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="216"/>
+      <c r="S32" s="216"/>
+      <c r="T32" s="216"/>
+      <c r="U32" s="216"/>
+      <c r="V32" s="216"/>
+      <c r="W32" s="216"/>
+      <c r="X32" s="216"/>
+      <c r="Y32" s="216"/>
+      <c r="Z32" s="216"/>
+      <c r="AA32" s="216"/>
+      <c r="AB32" s="216"/>
+      <c r="AC32" s="216"/>
+      <c r="AD32" s="216"/>
+      <c r="AE32" s="216"/>
+      <c r="AF32" s="216"/>
+      <c r="AG32" s="216"/>
+      <c r="AH32" s="216"/>
+      <c r="AI32" s="217"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40">
       <c r="A33" s="7"/>
       <c r="B33" s="10">
         <v>6</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="178" t="s">
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="179"/>
-      <c r="T33" s="179"/>
-      <c r="U33" s="179"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="179"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="179"/>
-      <c r="AD33" s="179"/>
-      <c r="AE33" s="179"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="216"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="216"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="216"/>
+      <c r="S33" s="216"/>
+      <c r="T33" s="216"/>
+      <c r="U33" s="216"/>
+      <c r="V33" s="216"/>
+      <c r="W33" s="216"/>
+      <c r="X33" s="216"/>
+      <c r="Y33" s="216"/>
+      <c r="Z33" s="216"/>
+      <c r="AA33" s="216"/>
+      <c r="AB33" s="216"/>
+      <c r="AC33" s="216"/>
+      <c r="AD33" s="216"/>
+      <c r="AE33" s="216"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="216"/>
+      <c r="AH33" s="216"/>
+      <c r="AI33" s="217"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40">
       <c r="A34" s="7"/>
       <c r="B34" s="9">
         <v>7</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="193" t="s">
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="194"/>
-      <c r="N34" s="194"/>
-      <c r="O34" s="194"/>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="194"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="194"/>
-      <c r="T34" s="194"/>
-      <c r="U34" s="194"/>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
-      <c r="Y34" s="194"/>
-      <c r="Z34" s="194"/>
-      <c r="AA34" s="194"/>
-      <c r="AB34" s="194"/>
-      <c r="AC34" s="194"/>
-      <c r="AD34" s="194"/>
-      <c r="AE34" s="194"/>
-      <c r="AF34" s="194"/>
-      <c r="AG34" s="194"/>
-      <c r="AH34" s="194"/>
-      <c r="AI34" s="195"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="228"/>
+      <c r="N34" s="228"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="228"/>
+      <c r="R34" s="228"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="228"/>
+      <c r="U34" s="228"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="228"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="228"/>
+      <c r="AA34" s="228"/>
+      <c r="AB34" s="228"/>
+      <c r="AC34" s="228"/>
+      <c r="AD34" s="228"/>
+      <c r="AE34" s="228"/>
+      <c r="AF34" s="228"/>
+      <c r="AG34" s="228"/>
+      <c r="AH34" s="228"/>
+      <c r="AI34" s="229"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40">
       <c r="A35" s="7"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="197"/>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="197"/>
-      <c r="V35" s="197"/>
-      <c r="W35" s="197"/>
-      <c r="X35" s="197"/>
-      <c r="Y35" s="197"/>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-      <c r="AC35" s="197"/>
-      <c r="AD35" s="197"/>
-      <c r="AE35" s="197"/>
-      <c r="AF35" s="197"/>
-      <c r="AG35" s="197"/>
-      <c r="AH35" s="197"/>
-      <c r="AI35" s="198"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="232"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40">
       <c r="A36" s="7"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="200"/>
-      <c r="M36" s="200"/>
-      <c r="N36" s="200"/>
-      <c r="O36" s="200"/>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="200"/>
-      <c r="R36" s="200"/>
-      <c r="S36" s="200"/>
-      <c r="T36" s="200"/>
-      <c r="U36" s="200"/>
-      <c r="V36" s="200"/>
-      <c r="W36" s="200"/>
-      <c r="X36" s="200"/>
-      <c r="Y36" s="200"/>
-      <c r="Z36" s="200"/>
-      <c r="AA36" s="200"/>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="200"/>
-      <c r="AD36" s="200"/>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="200"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="200"/>
-      <c r="AI36" s="201"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="225"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="233"/>
+      <c r="K36" s="234"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="234"/>
+      <c r="N36" s="234"/>
+      <c r="O36" s="234"/>
+      <c r="P36" s="234"/>
+      <c r="Q36" s="234"/>
+      <c r="R36" s="234"/>
+      <c r="S36" s="234"/>
+      <c r="T36" s="234"/>
+      <c r="U36" s="234"/>
+      <c r="V36" s="234"/>
+      <c r="W36" s="234"/>
+      <c r="X36" s="234"/>
+      <c r="Y36" s="234"/>
+      <c r="Z36" s="234"/>
+      <c r="AA36" s="234"/>
+      <c r="AB36" s="234"/>
+      <c r="AC36" s="234"/>
+      <c r="AD36" s="234"/>
+      <c r="AE36" s="234"/>
+      <c r="AF36" s="234"/>
+      <c r="AG36" s="234"/>
+      <c r="AH36" s="234"/>
+      <c r="AI36" s="235"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40">
       <c r="A37" s="7"/>
       <c r="B37" s="10">
         <v>8</v>
       </c>
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="180"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
       <c r="J37" s="40" t="s">
         <v>57</v>
       </c>
@@ -9511,107 +9391,15 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AJ8:AM9"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AJ18:AM18"/>
-    <mergeCell ref="AJ19:AM19"/>
-    <mergeCell ref="AJ20:AM20"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AJ22:AM22"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="AJ11:AM11"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="J19:P21"/>
-    <mergeCell ref="E10:I12"/>
-    <mergeCell ref="E14:I16"/>
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="E22:I24"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C19:D21"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="J22:P24"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="J17:P18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="S24:X24"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="J10:P12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AG8:AI9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:I9"/>
-    <mergeCell ref="J8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="Y8:AF9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="J31:AI31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:AI32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="J33:AI33"/>
+    <mergeCell ref="C34:I36"/>
+    <mergeCell ref="J34:AI36"/>
+    <mergeCell ref="C37:I37"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="J27:AI27"/>
     <mergeCell ref="C28:I28"/>
@@ -9636,15 +9424,107 @@
     <mergeCell ref="Y18:AF18"/>
     <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:AI31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="C34:I36"/>
-    <mergeCell ref="J34:AI36"/>
-    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:I9"/>
+    <mergeCell ref="J8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="S8:X9"/>
+    <mergeCell ref="Y8:AF9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="J10:P12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AG8:AI9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="S24:X24"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="J19:P21"/>
+    <mergeCell ref="E10:I12"/>
+    <mergeCell ref="E14:I16"/>
+    <mergeCell ref="E17:I18"/>
+    <mergeCell ref="E19:I21"/>
+    <mergeCell ref="E22:I24"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C19:D21"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="J22:P24"/>
+    <mergeCell ref="J14:P16"/>
+    <mergeCell ref="J17:P18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="AJ8:AM9"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AJ19:AM19"/>
+    <mergeCell ref="AJ20:AM20"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AJ22:AM22"/>
+    <mergeCell ref="AJ23:AM23"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AJ11:AM11"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="AJ16:AM16"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AN$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>PJ名</t>
   </si>
@@ -1104,6 +1104,21 @@
       <t>モクジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o.</t>
+    </r>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -1114,7 +1129,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1566,7 +1581,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1787,6 +1802,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1862,142 +2015,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2015,63 +2060,144 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2099,124 +2225,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2754,13 +2766,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2774,7 +2786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="781050"/>
+          <a:off x="552450" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2819,13 +2831,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2839,7 +2851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="771525"/>
+          <a:off x="1114425" y="771525"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2884,13 +2896,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2904,7 +2916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2209800" y="781050"/>
+          <a:off x="2486025" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2956,13 +2968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2976,7 +2988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4143375" y="781050"/>
+          <a:off x="4419600" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3021,13 +3033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3041,7 +3053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4695825" y="781050"/>
+          <a:off x="4972050" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3086,13 +3098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3106,7 +3118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6353175" y="781050"/>
+          <a:off x="6629400" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3151,13 +3163,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3171,7 +3183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8562975" y="781050"/>
+          <a:off x="8839200" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3216,13 +3228,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3236,7 +3248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9391650" y="781050"/>
+          <a:off x="9667875" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3283,13 +3295,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3403,7 +3415,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
@@ -3469,7 +3481,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
@@ -3826,42 +3838,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -3872,7 +3884,7 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -3881,7 +3893,7 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -3893,7 +3905,7 @@
       <c r="K25" s="86"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -3902,7 +3914,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -3911,7 +3923,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="23"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -3920,7 +3932,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="32"/>
@@ -3928,7 +3940,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="22"/>
       <c r="G30" s="24"/>
       <c r="H30" s="22"/>
@@ -3937,7 +3949,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="22"/>
       <c r="G31" s="24"/>
       <c r="H31" s="22"/>
@@ -3946,7 +3958,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="22"/>
       <c r="G32" s="24"/>
       <c r="H32" s="22"/>
@@ -3955,7 +3967,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="32"/>
@@ -3967,7 +3979,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="32"/>
@@ -3982,515 +3994,515 @@
       <c r="R34" s="88"/>
       <c r="S34" s="88"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="88"/>
       <c r="R35" s="88"/>
       <c r="S35" s="88"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="89"/>
       <c r="P36" s="88"/>
       <c r="Q36" s="89"/>
       <c r="R36" s="88"/>
       <c r="S36" s="39"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="90"/>
       <c r="P37" s="91"/>
       <c r="Q37" s="90"/>
       <c r="R37" s="91"/>
       <c r="S37" s="90"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="91"/>
       <c r="P38" s="91"/>
       <c r="Q38" s="91"/>
       <c r="R38" s="91"/>
       <c r="S38" s="91"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="91"/>
       <c r="P39" s="91"/>
       <c r="Q39" s="91"/>
       <c r="R39" s="91"/>
       <c r="S39" s="91"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -4518,170 +4530,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="123" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="154" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="92" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="120">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="97"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="123" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="126" t="str">
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="101" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="129" t="str">
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="104" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="131"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="106"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="142" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="132" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="131"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="106"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4695,7 +4707,7 @@
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="5"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -4707,1035 +4719,1191 @@
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
     </row>
-    <row r="7" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="135" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="135" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="135" t="s">
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="136"/>
-      <c r="AH7" s="136"/>
-      <c r="AI7" s="137"/>
-    </row>
-    <row r="8" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="112"/>
+    </row>
+    <row r="8" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152">
         <v>43336</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="104" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="155"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="116" t="s">
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
-    </row>
-    <row r="10" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="146"/>
+    </row>
+    <row r="10" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="100"/>
-    </row>
-    <row r="11" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="146"/>
+    </row>
+    <row r="11" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="100"/>
-    </row>
-    <row r="12" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="146"/>
+    </row>
+    <row r="12" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="100"/>
-    </row>
-    <row r="13" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="146"/>
+    </row>
+    <row r="13" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
-    </row>
-    <row r="14" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="146"/>
+    </row>
+    <row r="14" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="100"/>
-    </row>
-    <row r="15" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="146"/>
+    </row>
+    <row r="15" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="100"/>
-    </row>
-    <row r="16" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="146"/>
+    </row>
+    <row r="16" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
-    </row>
-    <row r="17" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="146"/>
+    </row>
+    <row r="17" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="100"/>
-    </row>
-    <row r="18" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="146"/>
+    </row>
+    <row r="18" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="100"/>
-    </row>
-    <row r="19" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="138"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="146"/>
+    </row>
+    <row r="19" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="100"/>
-    </row>
-    <row r="20" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="146"/>
+    </row>
+    <row r="20" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
-    </row>
-    <row r="21" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="146"/>
+    </row>
+    <row r="21" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="100"/>
-    </row>
-    <row r="22" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="146"/>
+    </row>
+    <row r="22" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="100"/>
-    </row>
-    <row r="23" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="146"/>
+    </row>
+    <row r="23" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
-    </row>
-    <row r="24" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="146"/>
+    </row>
+    <row r="24" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
-    </row>
-    <row r="25" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="146"/>
+    </row>
+    <row r="25" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
-    </row>
-    <row r="26" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="146"/>
+    </row>
+    <row r="26" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
-    </row>
-    <row r="27" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="146"/>
+    </row>
+    <row r="27" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
-    </row>
-    <row r="28" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="146"/>
+    </row>
+    <row r="28" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
-    </row>
-    <row r="29" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="146"/>
+    </row>
+    <row r="29" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
-    </row>
-    <row r="30" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="146"/>
+    </row>
+    <row r="30" spans="1:35" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="100"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="B30" s="138"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="146"/>
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="100"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="B31" s="138"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="146"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="100"/>
-    </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="146"/>
+    </row>
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="100"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="E2:N2"/>
@@ -5759,162 +5927,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5935,7 +5947,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="74" customWidth="1"/>
@@ -6070,169 +6082,169 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="123" t="str">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="168" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="163" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="165">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="167"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="123" t="str">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="163" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="165" t="str">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="167"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="123" t="str">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="165" t="str">
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="167"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -6269,7 +6281,7 @@
       <c r="AH4" s="43"/>
       <c r="AI4" s="43"/>
     </row>
-    <row r="5" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -6308,7 +6320,7 @@
       <c r="AH5" s="43"/>
       <c r="AI5" s="43"/>
     </row>
-    <row r="6" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -6345,7 +6357,7 @@
       <c r="AH6" s="43"/>
       <c r="AI6" s="43"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
       <c r="B7" s="41" t="s">
         <v>110</v>
@@ -6384,7 +6396,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -6421,7 +6433,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -6458,7 +6470,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -6495,7 +6507,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -6532,7 +6544,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -6569,7 +6581,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -6606,7 +6618,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -6643,7 +6655,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47"/>
       <c r="B15" s="58"/>
       <c r="C15" s="48"/>
@@ -6680,7 +6692,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47"/>
       <c r="B16" s="43"/>
       <c r="C16" s="47"/>
@@ -6717,7 +6729,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47"/>
       <c r="B17" s="43"/>
       <c r="C17" s="47"/>
@@ -6754,7 +6766,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47"/>
       <c r="B18" s="43"/>
       <c r="C18" s="47"/>
@@ -6791,7 +6803,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47"/>
       <c r="B19" s="43"/>
       <c r="C19" s="47"/>
@@ -6828,7 +6840,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47"/>
       <c r="B20" s="43"/>
       <c r="C20" s="47"/>
@@ -6865,7 +6877,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47"/>
       <c r="B21" s="43"/>
       <c r="C21" s="47"/>
@@ -6902,7 +6914,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47"/>
       <c r="B22" s="43"/>
       <c r="C22" s="47"/>
@@ -6939,7 +6951,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47"/>
       <c r="B23" s="58"/>
       <c r="C23" s="48"/>
@@ -6976,7 +6988,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47"/>
       <c r="B24" s="43"/>
       <c r="C24" s="47"/>
@@ -7013,7 +7025,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47"/>
       <c r="B25" s="43"/>
       <c r="C25" s="47"/>
@@ -7050,7 +7062,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47"/>
       <c r="B26" s="43"/>
       <c r="C26" s="47"/>
@@ -7087,7 +7099,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47"/>
       <c r="B27" s="43"/>
       <c r="C27" s="47"/>
@@ -7124,7 +7136,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47"/>
       <c r="B28" s="43"/>
       <c r="C28" s="47"/>
@@ -7161,7 +7173,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47"/>
       <c r="B29" s="43"/>
       <c r="C29" s="47"/>
@@ -7198,7 +7210,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="59"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -7235,7 +7247,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="63"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="59"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
@@ -7272,7 +7284,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="63"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="59"/>
       <c r="B32" s="66"/>
       <c r="C32" s="47"/>
@@ -7309,7 +7321,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="63"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="59"/>
       <c r="B33" s="66"/>
       <c r="C33" s="47"/>
@@ -7346,7 +7358,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="63"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59"/>
       <c r="B34" s="66"/>
       <c r="C34" s="47"/>
@@ -7383,7 +7395,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="63"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59"/>
       <c r="B35" s="66"/>
       <c r="C35" s="47"/>
@@ -7420,7 +7432,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="63"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -7457,7 +7469,7 @@
       <c r="AH36" s="71"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7489,7 +7501,7 @@
       <c r="AH37" s="79"/>
       <c r="AI37" s="75"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
       <c r="U38" s="76"/>
@@ -7508,7 +7520,7 @@
       <c r="AH38" s="82"/>
       <c r="AI38" s="75"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="83"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
@@ -7528,7 +7540,7 @@
       <c r="AH39" s="82"/>
       <c r="AI39" s="75"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
       <c r="U40" s="75"/>
@@ -7547,7 +7559,7 @@
       <c r="AH40" s="82"/>
       <c r="AI40" s="75"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -7561,37 +7573,37 @@
       <c r="AH41" s="82"/>
       <c r="AI41" s="75"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="75"/>
       <c r="AF42" s="80"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="82"/>
       <c r="AI42" s="75"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="75"/>
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
       <c r="AH43" s="82"/>
       <c r="AI43" s="75"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="72"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72"/>
       <c r="AG45" s="84"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="84"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="V48" s="72"/>
@@ -7604,7 +7616,7 @@
       <c r="AC48" s="72"/>
       <c r="AD48" s="72"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="72"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
@@ -7619,10 +7631,10 @@
       <c r="AD49" s="72"/>
       <c r="AG49" s="84"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="72"/>
     </row>
-    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -7655,7 +7667,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="83"/>
     </row>
-    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -7690,6 +7702,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -7699,14 +7719,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -7722,180 +7734,180 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="123" t="str">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="197" t="str">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="139" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="165">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="167"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="123" t="str">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="139" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="165" t="str">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="167"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="123" t="str">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="98" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="165" t="str">
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="167"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -7937,859 +7949,927 @@
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
     </row>
-    <row r="5" spans="1:40" s="7" customFormat="1">
+    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="7" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="8" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C8" s="178" t="s">
+    <row r="6" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="234" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="178" t="s">
+      <c r="D8" s="222"/>
+      <c r="E8" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="178" t="s">
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="178" t="s">
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="222"/>
+      <c r="Q8" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="180"/>
-      <c r="S8" s="178" t="s">
+      <c r="R8" s="222"/>
+      <c r="S8" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="179"/>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179"/>
-      <c r="W8" s="179"/>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="178" t="s">
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179"/>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="178" t="s">
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="223"/>
+      <c r="AF8" s="222"/>
+      <c r="AG8" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
-      <c r="AJ8" s="178" t="s">
+      <c r="AH8" s="223"/>
+      <c r="AI8" s="222"/>
+      <c r="AJ8" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="180"/>
-    </row>
-    <row r="9" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C9" s="181"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
-      <c r="AJ9" s="181"/>
-      <c r="AK9" s="182"/>
-      <c r="AL9" s="182"/>
-      <c r="AM9" s="183"/>
-    </row>
-    <row r="10" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
-      <c r="C10" s="187" t="s">
+      <c r="AK8" s="223"/>
+      <c r="AL8" s="223"/>
+      <c r="AM8" s="222"/>
+    </row>
+    <row r="9" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="233">
+        <f>ROW(B9)-ROW($B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="187" t="s">
+      <c r="D9" s="226"/>
+      <c r="E9" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="187" t="s">
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="184" t="s">
+      <c r="K9" s="225"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="225"/>
+      <c r="O9" s="225"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="186"/>
-      <c r="S10" s="184" t="s">
+      <c r="R9" s="209"/>
+      <c r="S9" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="184" t="s">
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="184" t="s">
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="210"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH10" s="185"/>
-      <c r="AI10" s="186"/>
-      <c r="AJ10" s="184"/>
-      <c r="AK10" s="185"/>
-      <c r="AL10" s="185"/>
-      <c r="AM10" s="186"/>
-    </row>
-    <row r="11" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
-      <c r="C11" s="190"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="191"/>
-      <c r="O11" s="191"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="184" t="s">
+      <c r="AH9" s="210"/>
+      <c r="AI9" s="209"/>
+      <c r="AJ9" s="208"/>
+      <c r="AK9" s="210"/>
+      <c r="AL9" s="210"/>
+      <c r="AM9" s="209"/>
+    </row>
+    <row r="10" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="233">
+        <f t="shared" ref="B10:B23" si="0">ROW(B10)-ROW($B$8)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="227"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="229"/>
+      <c r="Q10" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="186"/>
-      <c r="S11" s="184" t="s">
+      <c r="R10" s="209"/>
+      <c r="S10" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="184" t="s">
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="185"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="184" t="s">
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="185"/>
-      <c r="AI11" s="186"/>
-      <c r="AJ11" s="184"/>
-      <c r="AK11" s="185"/>
-      <c r="AL11" s="185"/>
-      <c r="AM11" s="186"/>
-    </row>
-    <row r="12" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1">
-      <c r="C12" s="193"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="184" t="s">
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="208"/>
+      <c r="AK10" s="210"/>
+      <c r="AL10" s="210"/>
+      <c r="AM10" s="209"/>
+    </row>
+    <row r="11" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="233">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="230"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="231"/>
+      <c r="L11" s="231"/>
+      <c r="M11" s="231"/>
+      <c r="N11" s="231"/>
+      <c r="O11" s="231"/>
+      <c r="P11" s="232"/>
+      <c r="Q11" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="186"/>
-      <c r="S12" s="184" t="s">
+      <c r="R11" s="209"/>
+      <c r="S11" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="184" t="s">
+      <c r="T11" s="210"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="210"/>
+      <c r="W11" s="210"/>
+      <c r="X11" s="209"/>
+      <c r="Y11" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="184" t="s">
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="210"/>
+      <c r="AB11" s="210"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="210"/>
+      <c r="AE11" s="210"/>
+      <c r="AF11" s="209"/>
+      <c r="AG11" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="185"/>
-      <c r="AI12" s="186"/>
-      <c r="AJ12" s="184"/>
-      <c r="AK12" s="185"/>
-      <c r="AL12" s="185"/>
-      <c r="AM12" s="186"/>
-    </row>
-    <row r="13" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C13" s="184" t="s">
+      <c r="AH11" s="210"/>
+      <c r="AI11" s="209"/>
+      <c r="AJ11" s="208"/>
+      <c r="AK11" s="210"/>
+      <c r="AL11" s="210"/>
+      <c r="AM11" s="209"/>
+    </row>
+    <row r="12" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="233">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="184" t="s">
+      <c r="D12" s="209"/>
+      <c r="E12" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="184" t="s">
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="184" t="s">
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="186"/>
-      <c r="S13" s="184" t="s">
+      <c r="R12" s="209"/>
+      <c r="S12" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="184" t="s">
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="209"/>
+      <c r="Y12" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="185"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="184" t="s">
+      <c r="Z12" s="210"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="210"/>
+      <c r="AF12" s="209"/>
+      <c r="AG12" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH13" s="185"/>
-      <c r="AI13" s="186"/>
-      <c r="AJ13" s="184"/>
-      <c r="AK13" s="185"/>
-      <c r="AL13" s="185"/>
-      <c r="AM13" s="186"/>
-    </row>
-    <row r="14" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
-      <c r="C14" s="187" t="s">
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="209"/>
+      <c r="AJ12" s="208"/>
+      <c r="AK12" s="210"/>
+      <c r="AL12" s="210"/>
+      <c r="AM12" s="209"/>
+    </row>
+    <row r="13" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="233">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="187" t="s">
+      <c r="D13" s="226"/>
+      <c r="E13" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="187" t="s">
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="184" t="s">
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="226"/>
+      <c r="Q13" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="186"/>
-      <c r="S14" s="184" t="s">
+      <c r="R13" s="209"/>
+      <c r="S13" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="184" t="s">
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="209"/>
+      <c r="Y13" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="184" t="s">
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="210"/>
+      <c r="AE13" s="210"/>
+      <c r="AF13" s="209"/>
+      <c r="AG13" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH14" s="185"/>
-      <c r="AI14" s="186"/>
-      <c r="AJ14" s="184" t="s">
+      <c r="AH13" s="210"/>
+      <c r="AI13" s="209"/>
+      <c r="AJ13" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="AK14" s="185"/>
-      <c r="AL14" s="185"/>
-      <c r="AM14" s="186"/>
-    </row>
-    <row r="15" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
-      <c r="C15" s="190"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="184" t="s">
+      <c r="AK13" s="210"/>
+      <c r="AL13" s="210"/>
+      <c r="AM13" s="209"/>
+    </row>
+    <row r="14" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="233">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="227"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="228"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="186"/>
-      <c r="S15" s="184" t="s">
+      <c r="R14" s="209"/>
+      <c r="S14" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="184" t="s">
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="210"/>
+      <c r="X14" s="209"/>
+      <c r="Y14" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="184" t="s">
+      <c r="Z14" s="210"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="210"/>
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="210"/>
+      <c r="AE14" s="210"/>
+      <c r="AF14" s="209"/>
+      <c r="AG14" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH15" s="185"/>
-      <c r="AI15" s="186"/>
-      <c r="AJ15" s="184" t="s">
+      <c r="AH14" s="210"/>
+      <c r="AI14" s="209"/>
+      <c r="AJ14" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="AK15" s="185"/>
-      <c r="AL15" s="185"/>
-      <c r="AM15" s="186"/>
-    </row>
-    <row r="16" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1">
-      <c r="C16" s="193"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="184" t="s">
+      <c r="AK14" s="210"/>
+      <c r="AL14" s="210"/>
+      <c r="AM14" s="209"/>
+    </row>
+    <row r="15" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="233">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="230"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="231"/>
+      <c r="P15" s="232"/>
+      <c r="Q15" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="186"/>
-      <c r="S16" s="184" t="s">
+      <c r="R15" s="209"/>
+      <c r="S15" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="184" t="s">
+      <c r="T15" s="210"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="210"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="209"/>
+      <c r="Y15" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="184" t="s">
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="210"/>
+      <c r="AF15" s="209"/>
+      <c r="AG15" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="185"/>
-      <c r="AI16" s="186"/>
-      <c r="AJ16" s="184" t="s">
+      <c r="AH15" s="210"/>
+      <c r="AI15" s="209"/>
+      <c r="AJ15" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" s="185"/>
-      <c r="AL16" s="185"/>
-      <c r="AM16" s="186"/>
-    </row>
-    <row r="17" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1">
-      <c r="C17" s="187" t="s">
+      <c r="AK15" s="210"/>
+      <c r="AL15" s="210"/>
+      <c r="AM15" s="209"/>
+    </row>
+    <row r="16" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="233">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="187" t="s">
+      <c r="D16" s="226"/>
+      <c r="E16" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="187" t="s">
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="184" t="s">
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="226"/>
+      <c r="Q16" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="186"/>
-      <c r="S17" s="184" t="s">
+      <c r="R16" s="209"/>
+      <c r="S16" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="184" t="s">
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
+      <c r="W16" s="210"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="184" t="s">
+      <c r="Z16" s="210"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="210"/>
+      <c r="AE16" s="210"/>
+      <c r="AF16" s="209"/>
+      <c r="AG16" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="AH17" s="185"/>
-      <c r="AI17" s="186"/>
-      <c r="AJ17" s="184" t="s">
+      <c r="AH16" s="210"/>
+      <c r="AI16" s="209"/>
+      <c r="AJ16" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="AK17" s="185"/>
-      <c r="AL17" s="185"/>
-      <c r="AM17" s="186"/>
-    </row>
-    <row r="18" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1">
-      <c r="C18" s="193"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="184" t="s">
+      <c r="AK16" s="210"/>
+      <c r="AL16" s="210"/>
+      <c r="AM16" s="209"/>
+    </row>
+    <row r="17" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="233">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="230"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="R18" s="186"/>
-      <c r="S18" s="184" t="s">
+      <c r="R17" s="209"/>
+      <c r="S17" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="184" t="s">
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="209"/>
+      <c r="Y17" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="185"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="184" t="s">
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="210"/>
+      <c r="AF17" s="209"/>
+      <c r="AG17" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH18" s="185"/>
-      <c r="AI18" s="186"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="185"/>
-      <c r="AL18" s="185"/>
-      <c r="AM18" s="186"/>
-    </row>
-    <row r="19" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
-      <c r="C19" s="187" t="s">
+      <c r="AH17" s="210"/>
+      <c r="AI17" s="209"/>
+      <c r="AJ17" s="208"/>
+      <c r="AK17" s="210"/>
+      <c r="AL17" s="210"/>
+      <c r="AM17" s="209"/>
+    </row>
+    <row r="18" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="233">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="189"/>
-      <c r="E19" s="187" t="s">
+      <c r="D18" s="226"/>
+      <c r="E18" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="187" t="s">
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="184" t="s">
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="226"/>
+      <c r="Q18" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="186"/>
-      <c r="S19" s="184" t="s">
+      <c r="R18" s="209"/>
+      <c r="S18" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="184" t="s">
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="209"/>
+      <c r="Y18" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="185"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="184" t="s">
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="210"/>
+      <c r="AF18" s="209"/>
+      <c r="AG18" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH19" s="185"/>
-      <c r="AI19" s="186"/>
-      <c r="AJ19" s="184"/>
-      <c r="AK19" s="185"/>
-      <c r="AL19" s="185"/>
-      <c r="AM19" s="186"/>
-    </row>
-    <row r="20" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
-      <c r="C20" s="190"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="191"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="184" t="s">
+      <c r="AH18" s="210"/>
+      <c r="AI18" s="209"/>
+      <c r="AJ18" s="208"/>
+      <c r="AK18" s="210"/>
+      <c r="AL18" s="210"/>
+      <c r="AM18" s="209"/>
+    </row>
+    <row r="19" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="233">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="227"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="229"/>
+      <c r="Q19" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="186"/>
-      <c r="S20" s="184" t="s">
+      <c r="R19" s="209"/>
+      <c r="S19" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="184" t="s">
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="209"/>
+      <c r="Y19" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="185"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="184" t="s">
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="210"/>
+      <c r="AF19" s="209"/>
+      <c r="AG19" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH20" s="185"/>
-      <c r="AI20" s="186"/>
-      <c r="AJ20" s="184"/>
-      <c r="AK20" s="185"/>
-      <c r="AL20" s="185"/>
-      <c r="AM20" s="186"/>
-    </row>
-    <row r="21" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1">
-      <c r="C21" s="193"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="194"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="184" t="s">
+      <c r="AH19" s="210"/>
+      <c r="AI19" s="209"/>
+      <c r="AJ19" s="208"/>
+      <c r="AK19" s="210"/>
+      <c r="AL19" s="210"/>
+      <c r="AM19" s="209"/>
+    </row>
+    <row r="20" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="233">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="230"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="232"/>
+      <c r="Q20" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="186"/>
-      <c r="S21" s="184" t="s">
+      <c r="R20" s="209"/>
+      <c r="S20" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="184" t="s">
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="209"/>
+      <c r="Y20" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="185"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="184" t="s">
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="210"/>
+      <c r="AF20" s="209"/>
+      <c r="AG20" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="AH21" s="185"/>
-      <c r="AI21" s="186"/>
-      <c r="AJ21" s="184"/>
-      <c r="AK21" s="185"/>
-      <c r="AL21" s="185"/>
-      <c r="AM21" s="186"/>
-    </row>
-    <row r="22" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C22" s="187" t="s">
+      <c r="AH20" s="210"/>
+      <c r="AI20" s="209"/>
+      <c r="AJ20" s="208"/>
+      <c r="AK20" s="210"/>
+      <c r="AL20" s="210"/>
+      <c r="AM20" s="209"/>
+    </row>
+    <row r="21" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="233">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="224" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="189"/>
-      <c r="E22" s="187" t="s">
+      <c r="D21" s="226"/>
+      <c r="E21" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="187" t="s">
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="196" t="s">
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="226"/>
+      <c r="Q21" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="196"/>
-      <c r="S22" s="196" t="s">
+      <c r="R21" s="211"/>
+      <c r="S21" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="T22" s="196"/>
-      <c r="U22" s="196"/>
-      <c r="V22" s="196"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="196" t="s">
+      <c r="T21" s="211"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
-      <c r="AD22" s="196"/>
-      <c r="AE22" s="196"/>
-      <c r="AF22" s="196"/>
-      <c r="AG22" s="196" t="s">
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="211"/>
+      <c r="AG21" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="AH22" s="196"/>
-      <c r="AI22" s="196"/>
-      <c r="AJ22" s="184"/>
-      <c r="AK22" s="185"/>
-      <c r="AL22" s="185"/>
-      <c r="AM22" s="186"/>
-    </row>
-    <row r="23" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C23" s="190"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="196" t="s">
+      <c r="AH21" s="211"/>
+      <c r="AI21" s="211"/>
+      <c r="AJ21" s="208"/>
+      <c r="AK21" s="210"/>
+      <c r="AL21" s="210"/>
+      <c r="AM21" s="209"/>
+    </row>
+    <row r="22" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="233">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="227"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="227"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="229"/>
+      <c r="Q22" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="R23" s="196"/>
-      <c r="S23" s="196" t="s">
+      <c r="R22" s="211"/>
+      <c r="S22" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196" t="s">
+      <c r="T22" s="211"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
+      <c r="Y22" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="196" t="s">
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="211"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="211"/>
+      <c r="AD22" s="211"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="211"/>
+      <c r="AG22" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="AH23" s="196"/>
-      <c r="AI23" s="196"/>
-      <c r="AJ23" s="184"/>
-      <c r="AK23" s="185"/>
-      <c r="AL23" s="185"/>
-      <c r="AM23" s="186"/>
-    </row>
-    <row r="24" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C24" s="193"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="194"/>
-      <c r="O24" s="194"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="196" t="s">
+      <c r="AH22" s="211"/>
+      <c r="AI22" s="211"/>
+      <c r="AJ22" s="208"/>
+      <c r="AK22" s="210"/>
+      <c r="AL22" s="210"/>
+      <c r="AM22" s="209"/>
+    </row>
+    <row r="23" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="233">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C23" s="230"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="196"/>
-      <c r="S24" s="196" t="s">
+      <c r="R23" s="211"/>
+      <c r="S23" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="196"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="196" t="s">
+      <c r="T23" s="211"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="211"/>
+      <c r="W23" s="211"/>
+      <c r="X23" s="211"/>
+      <c r="Y23" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
-      <c r="AD24" s="196"/>
-      <c r="AE24" s="196"/>
-      <c r="AF24" s="196"/>
-      <c r="AG24" s="196" t="s">
+      <c r="Z23" s="211"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="211"/>
+      <c r="AD23" s="211"/>
+      <c r="AE23" s="211"/>
+      <c r="AF23" s="211"/>
+      <c r="AG23" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="AH24" s="196"/>
-      <c r="AI24" s="196"/>
-      <c r="AJ24" s="184"/>
-      <c r="AK24" s="185"/>
-      <c r="AL24" s="185"/>
-      <c r="AM24" s="186"/>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AH23" s="211"/>
+      <c r="AI23" s="211"/>
+      <c r="AJ23" s="208"/>
+      <c r="AK23" s="210"/>
+      <c r="AL23" s="210"/>
+      <c r="AM23" s="209"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8822,592 +8902,644 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AI25" s="36"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="36"/>
+      <c r="B26" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
+      <c r="P26" s="206"/>
+      <c r="Q26" s="206"/>
+      <c r="R26" s="206"/>
+      <c r="S26" s="206"/>
+      <c r="T26" s="206"/>
+      <c r="U26" s="206"/>
+      <c r="V26" s="206"/>
+      <c r="W26" s="206"/>
+      <c r="X26" s="206"/>
+      <c r="Y26" s="206"/>
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="206"/>
+      <c r="AB26" s="206"/>
+      <c r="AC26" s="206"/>
+      <c r="AD26" s="206"/>
+      <c r="AE26" s="206"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="206"/>
+      <c r="AH26" s="206"/>
+      <c r="AI26" s="207"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="206" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="210"/>
-      <c r="S27" s="210"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="210"/>
-      <c r="V27" s="210"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="211"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="178" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
+      <c r="O27" s="179"/>
+      <c r="P27" s="179"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="179"/>
+      <c r="U27" s="179"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="179"/>
+      <c r="Y27" s="179"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="179"/>
+      <c r="AH27" s="179"/>
+      <c r="AI27" s="180"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="215" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="216"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="216"/>
-      <c r="N28" s="216"/>
-      <c r="O28" s="216"/>
-      <c r="P28" s="216"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="216"/>
-      <c r="S28" s="216"/>
-      <c r="T28" s="216"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="216"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="216"/>
-      <c r="AD28" s="216"/>
-      <c r="AE28" s="216"/>
-      <c r="AF28" s="216"/>
-      <c r="AG28" s="216"/>
-      <c r="AH28" s="216"/>
-      <c r="AI28" s="217"/>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="179"/>
+      <c r="O28" s="179"/>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="179"/>
+      <c r="R28" s="179"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="179"/>
+      <c r="U28" s="179"/>
+      <c r="V28" s="179"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="179"/>
+      <c r="Y28" s="179"/>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="179"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="179"/>
+      <c r="AG28" s="179"/>
+      <c r="AH28" s="179"/>
+      <c r="AI28" s="180"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="10">
-        <v>2</v>
-      </c>
-      <c r="C29" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="215" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="216"/>
-      <c r="L29" s="216"/>
-      <c r="M29" s="216"/>
-      <c r="N29" s="216"/>
-      <c r="O29" s="216"/>
-      <c r="P29" s="216"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="216"/>
-      <c r="S29" s="216"/>
-      <c r="T29" s="216"/>
-      <c r="U29" s="216"/>
-      <c r="V29" s="216"/>
-      <c r="W29" s="216"/>
-      <c r="X29" s="216"/>
-      <c r="Y29" s="216"/>
-      <c r="Z29" s="216"/>
-      <c r="AA29" s="216"/>
-      <c r="AB29" s="216"/>
-      <c r="AC29" s="216"/>
-      <c r="AD29" s="216"/>
-      <c r="AE29" s="216"/>
-      <c r="AF29" s="216"/>
-      <c r="AG29" s="216"/>
-      <c r="AH29" s="216"/>
-      <c r="AI29" s="217"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="179"/>
+      <c r="Q29" s="179"/>
+      <c r="R29" s="179"/>
+      <c r="S29" s="179"/>
+      <c r="T29" s="179"/>
+      <c r="U29" s="179"/>
+      <c r="V29" s="179"/>
+      <c r="W29" s="179"/>
+      <c r="X29" s="179"/>
+      <c r="Y29" s="179"/>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
+      <c r="AB29" s="179"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="179"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="179"/>
+      <c r="AH29" s="179"/>
+      <c r="AI29" s="180"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="10">
-        <v>3</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="215" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="216"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="216"/>
-      <c r="N30" s="216"/>
-      <c r="O30" s="216"/>
-      <c r="P30" s="216"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="216"/>
-      <c r="S30" s="216"/>
-      <c r="T30" s="216"/>
-      <c r="U30" s="216"/>
-      <c r="V30" s="216"/>
-      <c r="W30" s="216"/>
-      <c r="X30" s="216"/>
-      <c r="Y30" s="216"/>
-      <c r="Z30" s="216"/>
-      <c r="AA30" s="216"/>
-      <c r="AB30" s="216"/>
-      <c r="AC30" s="216"/>
-      <c r="AD30" s="216"/>
-      <c r="AE30" s="216"/>
-      <c r="AF30" s="216"/>
-      <c r="AG30" s="216"/>
-      <c r="AH30" s="216"/>
-      <c r="AI30" s="217"/>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="179"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="179"/>
+      <c r="T30" s="179"/>
+      <c r="U30" s="179"/>
+      <c r="V30" s="179"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
+      <c r="Y30" s="179"/>
+      <c r="Z30" s="179"/>
+      <c r="AA30" s="179"/>
+      <c r="AB30" s="179"/>
+      <c r="AC30" s="179"/>
+      <c r="AD30" s="179"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="179"/>
+      <c r="AG30" s="179"/>
+      <c r="AH30" s="179"/>
+      <c r="AI30" s="180"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="216"/>
-      <c r="L31" s="216"/>
-      <c r="M31" s="216"/>
-      <c r="N31" s="216"/>
-      <c r="O31" s="216"/>
-      <c r="P31" s="216"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="216"/>
-      <c r="S31" s="216"/>
-      <c r="T31" s="216"/>
-      <c r="U31" s="216"/>
-      <c r="V31" s="216"/>
-      <c r="W31" s="216"/>
-      <c r="X31" s="216"/>
-      <c r="Y31" s="216"/>
-      <c r="Z31" s="216"/>
-      <c r="AA31" s="216"/>
-      <c r="AB31" s="216"/>
-      <c r="AC31" s="216"/>
-      <c r="AD31" s="216"/>
-      <c r="AE31" s="216"/>
-      <c r="AF31" s="216"/>
-      <c r="AG31" s="216"/>
-      <c r="AH31" s="216"/>
-      <c r="AI31" s="217"/>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="179"/>
+      <c r="P31" s="179"/>
+      <c r="Q31" s="179"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="179"/>
+      <c r="T31" s="179"/>
+      <c r="U31" s="179"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="179"/>
+      <c r="Y31" s="179"/>
+      <c r="Z31" s="179"/>
+      <c r="AA31" s="179"/>
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="179"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="179"/>
+      <c r="AG31" s="179"/>
+      <c r="AH31" s="179"/>
+      <c r="AI31" s="180"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="10">
-        <v>5</v>
-      </c>
-      <c r="C32" s="215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="215" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" s="216"/>
-      <c r="L32" s="216"/>
-      <c r="M32" s="216"/>
-      <c r="N32" s="216"/>
-      <c r="O32" s="216"/>
-      <c r="P32" s="216"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="216"/>
-      <c r="S32" s="216"/>
-      <c r="T32" s="216"/>
-      <c r="U32" s="216"/>
-      <c r="V32" s="216"/>
-      <c r="W32" s="216"/>
-      <c r="X32" s="216"/>
-      <c r="Y32" s="216"/>
-      <c r="Z32" s="216"/>
-      <c r="AA32" s="216"/>
-      <c r="AB32" s="216"/>
-      <c r="AC32" s="216"/>
-      <c r="AD32" s="216"/>
-      <c r="AE32" s="216"/>
-      <c r="AF32" s="216"/>
-      <c r="AG32" s="216"/>
-      <c r="AH32" s="216"/>
-      <c r="AI32" s="217"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="179"/>
+      <c r="Y32" s="179"/>
+      <c r="Z32" s="179"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="179"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="179"/>
+      <c r="AG32" s="179"/>
+      <c r="AH32" s="179"/>
+      <c r="AI32" s="180"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="10">
-        <v>6</v>
-      </c>
-      <c r="C33" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="216"/>
-      <c r="L33" s="216"/>
-      <c r="M33" s="216"/>
-      <c r="N33" s="216"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="216"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="216"/>
-      <c r="S33" s="216"/>
-      <c r="T33" s="216"/>
-      <c r="U33" s="216"/>
-      <c r="V33" s="216"/>
-      <c r="W33" s="216"/>
-      <c r="X33" s="216"/>
-      <c r="Y33" s="216"/>
-      <c r="Z33" s="216"/>
-      <c r="AA33" s="216"/>
-      <c r="AB33" s="216"/>
-      <c r="AC33" s="216"/>
-      <c r="AD33" s="216"/>
-      <c r="AE33" s="216"/>
-      <c r="AF33" s="216"/>
-      <c r="AG33" s="216"/>
-      <c r="AH33" s="216"/>
-      <c r="AI33" s="217"/>
+      <c r="B33" s="9">
+        <v>7</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
-      <c r="B34" s="9">
-        <v>7</v>
-      </c>
-      <c r="C34" s="218" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="227" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="228"/>
-      <c r="L34" s="228"/>
-      <c r="M34" s="228"/>
-      <c r="N34" s="228"/>
-      <c r="O34" s="228"/>
-      <c r="P34" s="228"/>
-      <c r="Q34" s="228"/>
-      <c r="R34" s="228"/>
-      <c r="S34" s="228"/>
-      <c r="T34" s="228"/>
-      <c r="U34" s="228"/>
-      <c r="V34" s="228"/>
-      <c r="W34" s="228"/>
-      <c r="X34" s="228"/>
-      <c r="Y34" s="228"/>
-      <c r="Z34" s="228"/>
-      <c r="AA34" s="228"/>
-      <c r="AB34" s="228"/>
-      <c r="AC34" s="228"/>
-      <c r="AD34" s="228"/>
-      <c r="AE34" s="228"/>
-      <c r="AF34" s="228"/>
-      <c r="AG34" s="228"/>
-      <c r="AH34" s="228"/>
-      <c r="AI34" s="229"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="197"/>
+      <c r="U34" s="197"/>
+      <c r="V34" s="197"/>
+      <c r="W34" s="197"/>
+      <c r="X34" s="197"/>
+      <c r="Y34" s="197"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="197"/>
+      <c r="AB34" s="197"/>
+      <c r="AC34" s="197"/>
+      <c r="AD34" s="197"/>
+      <c r="AE34" s="197"/>
+      <c r="AF34" s="197"/>
+      <c r="AG34" s="197"/>
+      <c r="AH34" s="197"/>
+      <c r="AI34" s="198"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="221"/>
-      <c r="D35" s="222"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="222"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AH35" s="231"/>
-      <c r="AI35" s="232"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="200"/>
+      <c r="O35" s="200"/>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="200"/>
+      <c r="T35" s="200"/>
+      <c r="U35" s="200"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="200"/>
+      <c r="X35" s="200"/>
+      <c r="Y35" s="200"/>
+      <c r="Z35" s="200"/>
+      <c r="AA35" s="200"/>
+      <c r="AB35" s="200"/>
+      <c r="AC35" s="200"/>
+      <c r="AD35" s="200"/>
+      <c r="AE35" s="200"/>
+      <c r="AF35" s="200"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="200"/>
+      <c r="AI35" s="201"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="225"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="233"/>
-      <c r="K36" s="234"/>
-      <c r="L36" s="234"/>
-      <c r="M36" s="234"/>
-      <c r="N36" s="234"/>
-      <c r="O36" s="234"/>
-      <c r="P36" s="234"/>
-      <c r="Q36" s="234"/>
-      <c r="R36" s="234"/>
-      <c r="S36" s="234"/>
-      <c r="T36" s="234"/>
-      <c r="U36" s="234"/>
-      <c r="V36" s="234"/>
-      <c r="W36" s="234"/>
-      <c r="X36" s="234"/>
-      <c r="Y36" s="234"/>
-      <c r="Z36" s="234"/>
-      <c r="AA36" s="234"/>
-      <c r="AB36" s="234"/>
-      <c r="AC36" s="234"/>
-      <c r="AD36" s="234"/>
-      <c r="AE36" s="234"/>
-      <c r="AF36" s="234"/>
-      <c r="AG36" s="234"/>
-      <c r="AH36" s="234"/>
-      <c r="AI36" s="235"/>
+      <c r="B36" s="10">
+        <v>8</v>
+      </c>
+      <c r="C36" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="38"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10">
-        <v>8</v>
-      </c>
-      <c r="C37" s="215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:AI31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="C34:I36"/>
-    <mergeCell ref="J34:AI36"/>
-    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AJ19:AM19"/>
+    <mergeCell ref="AJ20:AM20"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AJ22:AM22"/>
+    <mergeCell ref="AJ23:AM23"/>
+    <mergeCell ref="AJ9:AM9"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AJ11:AM11"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="J18:P20"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="E13:I15"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="E18:I20"/>
+    <mergeCell ref="E21:I23"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="C21:D23"/>
+    <mergeCell ref="J21:P23"/>
+    <mergeCell ref="J13:P15"/>
+    <mergeCell ref="J16:P17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="Y9:AF9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="Y8:AF8"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:AI26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="J27:AI27"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="J28:AI28"/>
-    <mergeCell ref="C29:I29"/>
     <mergeCell ref="J29:AI29"/>
-    <mergeCell ref="J30:AI30"/>
-    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:X14"/>
     <mergeCell ref="Y14:AF14"/>
@@ -9416,115 +9548,19 @@
     <mergeCell ref="S15:X15"/>
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:I9"/>
-    <mergeCell ref="J8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="Y8:AF9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="J10:P12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AG8:AI9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:X17"/>
     <mergeCell ref="Y17:AF17"/>
     <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
     <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="S24:X24"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="J19:P21"/>
-    <mergeCell ref="E10:I12"/>
-    <mergeCell ref="E14:I16"/>
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="E22:I24"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C19:D21"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="J22:P24"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="J17:P18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="AJ8:AM9"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AJ18:AM18"/>
-    <mergeCell ref="AJ19:AM19"/>
-    <mergeCell ref="AJ20:AM20"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AJ22:AM22"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="AJ11:AM11"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:AI30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="J31:AI31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:AI32"/>
+    <mergeCell ref="C33:I35"/>
+    <mergeCell ref="J33:AI35"/>
+    <mergeCell ref="C36:I36"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9533,7 +9569,7 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" min="1" max="40" man="1"/>
+    <brk id="20" max="39" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能一覧_サンプル.xlsx
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AN$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>PJ名</t>
   </si>
@@ -1104,6 +1104,21 @@
       <t>モクジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o.</t>
+    </r>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -1566,7 +1581,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2000,6 +2015,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2015,36 +2060,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2180,18 +2195,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2218,6 +2224,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2542,19 +2554,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3162300"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="3314700"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,27 +2584,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2600,27 +2600,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2637,19 +2625,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="3362325"/>
+        <a:xfrm rot="20636203">
+          <a:off x="981075" y="3514725"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2667,27 +2655,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2695,27 +2671,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2732,19 +2696,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3371850"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="3524250"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2762,27 +2726,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2790,27 +2742,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2826,13 +2766,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2846,7 +2786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="781050"/>
+          <a:off x="552450" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2891,13 +2831,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2911,7 +2851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="771525"/>
+          <a:off x="1114425" y="771525"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2956,13 +2896,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2976,7 +2916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2209800" y="781050"/>
+          <a:off x="2486025" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3028,13 +2968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3048,7 +2988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4143375" y="781050"/>
+          <a:off x="4419600" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3093,13 +3033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3113,7 +3053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4695825" y="781050"/>
+          <a:off x="4972050" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3158,13 +3098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3178,7 +3118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6353175" y="781050"/>
+          <a:off x="6629400" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3223,13 +3163,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3243,7 +3183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8562975" y="781050"/>
+          <a:off x="8839200" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3288,13 +3228,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3308,7 +3248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9391650" y="781050"/>
+          <a:off x="9667875" y="781050"/>
           <a:ext cx="257175" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3355,13 +3295,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3474,19 +3414,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="3476625"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2143125" y="3629025"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3504,27 +3444,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3532,27 +3460,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3564,19 +3480,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="8743950"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2466975" y="8362950"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3594,27 +3510,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3622,27 +3526,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6210,13 +6102,13 @@
       <c r="L1" s="99"/>
       <c r="M1" s="99"/>
       <c r="N1" s="100"/>
-      <c r="O1" s="168" t="s">
+      <c r="O1" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
@@ -6227,10 +6119,10 @@
       <c r="X1" s="130"/>
       <c r="Y1" s="130"/>
       <c r="Z1" s="131"/>
-      <c r="AA1" s="163" t="s">
+      <c r="AA1" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="164"/>
+      <c r="AB1" s="174"/>
       <c r="AC1" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
@@ -6238,12 +6130,12 @@
       <c r="AD1" s="93"/>
       <c r="AE1" s="93"/>
       <c r="AF1" s="94"/>
-      <c r="AG1" s="165">
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="167"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
@@ -6268,10 +6160,10 @@
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
       <c r="N2" s="100"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="173"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="132"/>
       <c r="T2" s="133"/>
       <c r="U2" s="133"/>
@@ -6280,10 +6172,10 @@
       <c r="X2" s="133"/>
       <c r="Y2" s="133"/>
       <c r="Z2" s="134"/>
-      <c r="AA2" s="163" t="s">
+      <c r="AA2" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="164"/>
+      <c r="AB2" s="174"/>
       <c r="AC2" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
@@ -6291,12 +6183,12 @@
       <c r="AD2" s="93"/>
       <c r="AE2" s="93"/>
       <c r="AF2" s="94"/>
-      <c r="AG2" s="165" t="str">
+      <c r="AG2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="167"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -6321,10 +6213,10 @@
       <c r="L3" s="99"/>
       <c r="M3" s="99"/>
       <c r="N3" s="100"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="176"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="135"/>
       <c r="T3" s="136"/>
       <c r="U3" s="136"/>
@@ -6333,8 +6225,8 @@
       <c r="X3" s="136"/>
       <c r="Y3" s="136"/>
       <c r="Z3" s="137"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="164"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
       <c r="AC3" s="92" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -6342,12 +6234,12 @@
       <c r="AD3" s="93"/>
       <c r="AE3" s="93"/>
       <c r="AF3" s="94"/>
-      <c r="AG3" s="165" t="str">
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="167"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -7810,23 +7702,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -7842,7 +7734,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -7901,12 +7793,12 @@
       <c r="AD1" s="93"/>
       <c r="AE1" s="93"/>
       <c r="AF1" s="94"/>
-      <c r="AG1" s="165">
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="167"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -7954,12 +7846,12 @@
       <c r="AD2" s="93"/>
       <c r="AE2" s="93"/>
       <c r="AF2" s="94"/>
-      <c r="AG2" s="165" t="str">
+      <c r="AG2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="167"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8005,12 +7897,12 @@
       <c r="AD3" s="93"/>
       <c r="AE3" s="93"/>
       <c r="AF3" s="94"/>
-      <c r="AG3" s="165" t="str">
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="167"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -8065,6 +7957,9 @@
     <row r="6" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="234" t="s">
+        <v>116</v>
+      </c>
       <c r="C8" s="221" t="s">
         <v>9</v>
       </c>
@@ -8072,18 +7967,18 @@
       <c r="E8" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
       <c r="I8" s="222"/>
       <c r="J8" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
       <c r="P8" s="222"/>
       <c r="Q8" s="221" t="s">
         <v>11</v>
@@ -8092,87 +7987,103 @@
       <c r="S8" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="225"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
       <c r="X8" s="222"/>
       <c r="Y8" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="225"/>
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="223"/>
       <c r="AF8" s="222"/>
       <c r="AG8" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="225"/>
+      <c r="AH8" s="223"/>
       <c r="AI8" s="222"/>
       <c r="AJ8" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="225"/>
-      <c r="AL8" s="225"/>
+      <c r="AK8" s="223"/>
+      <c r="AL8" s="223"/>
       <c r="AM8" s="222"/>
     </row>
-    <row r="9" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="226"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="226"/>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="226"/>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="226"/>
-      <c r="AF9" s="224"/>
-      <c r="AG9" s="223"/>
-      <c r="AH9" s="226"/>
-      <c r="AI9" s="224"/>
-      <c r="AJ9" s="223"/>
-      <c r="AK9" s="226"/>
-      <c r="AL9" s="226"/>
-      <c r="AM9" s="224"/>
+    <row r="9" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="233">
+        <f>ROW(B9)-ROW($B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="226"/>
+      <c r="E9" s="224" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="224" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="225"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="225"/>
+      <c r="O9" s="225"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="208" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="209"/>
+      <c r="S9" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="210"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" s="210"/>
+      <c r="AI9" s="209"/>
+      <c r="AJ9" s="208"/>
+      <c r="AK9" s="210"/>
+      <c r="AL9" s="210"/>
+      <c r="AM9" s="209"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="227" t="s">
-        <v>62</v>
-      </c>
+      <c r="B10" s="233">
+        <f t="shared" ref="B10:B23" si="0">ROW(B10)-ROW($B$8)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="227"/>
       <c r="D10" s="229"/>
-      <c r="E10" s="227" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="227"/>
       <c r="F10" s="228"/>
       <c r="G10" s="228"/>
       <c r="H10" s="228"/>
       <c r="I10" s="229"/>
-      <c r="J10" s="227" t="s">
-        <v>37</v>
-      </c>
+      <c r="J10" s="227"/>
       <c r="K10" s="228"/>
       <c r="L10" s="228"/>
       <c r="M10" s="228"/>
@@ -8180,11 +8091,11 @@
       <c r="O10" s="228"/>
       <c r="P10" s="229"/>
       <c r="Q10" s="208" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R10" s="209"/>
       <c r="S10" s="208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T10" s="210"/>
       <c r="U10" s="210"/>
@@ -8192,7 +8103,7 @@
       <c r="W10" s="210"/>
       <c r="X10" s="209"/>
       <c r="Y10" s="208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z10" s="210"/>
       <c r="AA10" s="210"/>
@@ -8212,6 +8123,10 @@
       <c r="AM10" s="209"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="233">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C11" s="230"/>
       <c r="D11" s="232"/>
       <c r="E11" s="230"/>
@@ -8227,11 +8142,11 @@
       <c r="O11" s="231"/>
       <c r="P11" s="232"/>
       <c r="Q11" s="208" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R11" s="209"/>
       <c r="S11" s="208" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T11" s="210"/>
       <c r="U11" s="210"/>
@@ -8239,7 +8154,7 @@
       <c r="W11" s="210"/>
       <c r="X11" s="209"/>
       <c r="Y11" s="208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z11" s="210"/>
       <c r="AA11" s="210"/>
@@ -8258,27 +8173,37 @@
       <c r="AL11" s="210"/>
       <c r="AM11" s="209"/>
     </row>
-    <row r="12" spans="1:40" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="233"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
+    <row r="12" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="233">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="208" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="209"/>
+      <c r="E12" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="209"/>
       <c r="Q12" s="208" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R12" s="209"/>
       <c r="S12" s="208" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T12" s="210"/>
       <c r="U12" s="210"/>
@@ -8286,7 +8211,7 @@
       <c r="W12" s="210"/>
       <c r="X12" s="209"/>
       <c r="Y12" s="208" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="210"/>
       <c r="AA12" s="210"/>
@@ -8296,7 +8221,7 @@
       <c r="AE12" s="210"/>
       <c r="AF12" s="209"/>
       <c r="AG12" s="208" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AH12" s="210"/>
       <c r="AI12" s="209"/>
@@ -8305,33 +8230,37 @@
       <c r="AL12" s="210"/>
       <c r="AM12" s="209"/>
     </row>
-    <row r="13" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="208" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="208" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="208" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="209"/>
+    <row r="13" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="233">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="224" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="226"/>
+      <c r="E13" s="224" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="224" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="226"/>
       <c r="Q13" s="208" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R13" s="209"/>
       <c r="S13" s="208" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T13" s="210"/>
       <c r="U13" s="210"/>
@@ -8339,7 +8268,7 @@
       <c r="W13" s="210"/>
       <c r="X13" s="209"/>
       <c r="Y13" s="208" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="210"/>
       <c r="AA13" s="210"/>
@@ -8353,26 +8282,26 @@
       </c>
       <c r="AH13" s="210"/>
       <c r="AI13" s="209"/>
-      <c r="AJ13" s="208"/>
+      <c r="AJ13" s="208" t="s">
+        <v>55</v>
+      </c>
       <c r="AK13" s="210"/>
       <c r="AL13" s="210"/>
       <c r="AM13" s="209"/>
     </row>
     <row r="14" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="227" t="s">
-        <v>69</v>
-      </c>
+      <c r="B14" s="233">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="227"/>
       <c r="D14" s="229"/>
-      <c r="E14" s="227" t="s">
-        <v>22</v>
-      </c>
+      <c r="E14" s="227"/>
       <c r="F14" s="228"/>
       <c r="G14" s="228"/>
       <c r="H14" s="228"/>
       <c r="I14" s="229"/>
-      <c r="J14" s="227" t="s">
-        <v>29</v>
-      </c>
+      <c r="J14" s="227"/>
       <c r="K14" s="228"/>
       <c r="L14" s="228"/>
       <c r="M14" s="228"/>
@@ -8380,11 +8309,11 @@
       <c r="O14" s="228"/>
       <c r="P14" s="229"/>
       <c r="Q14" s="208" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" s="209"/>
       <c r="S14" s="208" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T14" s="210"/>
       <c r="U14" s="210"/>
@@ -8392,7 +8321,7 @@
       <c r="W14" s="210"/>
       <c r="X14" s="209"/>
       <c r="Y14" s="208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="210"/>
       <c r="AA14" s="210"/>
@@ -8414,6 +8343,10 @@
       <c r="AM14" s="209"/>
     </row>
     <row r="15" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="233">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C15" s="230"/>
       <c r="D15" s="232"/>
       <c r="E15" s="230"/>
@@ -8429,11 +8362,11 @@
       <c r="O15" s="231"/>
       <c r="P15" s="232"/>
       <c r="Q15" s="208" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="R15" s="209"/>
       <c r="S15" s="208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T15" s="210"/>
       <c r="U15" s="210"/>
@@ -8441,7 +8374,7 @@
       <c r="W15" s="210"/>
       <c r="X15" s="209"/>
       <c r="Y15" s="208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="210"/>
       <c r="AA15" s="210"/>
@@ -8462,27 +8395,37 @@
       <c r="AL15" s="210"/>
       <c r="AM15" s="209"/>
     </row>
-    <row r="16" spans="1:40" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="233"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
+    <row r="16" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="233">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="224" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="226"/>
+      <c r="E16" s="224" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="224" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="226"/>
       <c r="Q16" s="208" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="R16" s="209"/>
       <c r="S16" s="208" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T16" s="210"/>
       <c r="U16" s="210"/>
@@ -8490,7 +8433,7 @@
       <c r="W16" s="210"/>
       <c r="X16" s="209"/>
       <c r="Y16" s="208" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="210"/>
       <c r="AA16" s="210"/>
@@ -8505,39 +8448,37 @@
       <c r="AH16" s="210"/>
       <c r="AI16" s="209"/>
       <c r="AJ16" s="208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" s="210"/>
       <c r="AL16" s="210"/>
       <c r="AM16" s="209"/>
     </row>
     <row r="17" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="227" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="229"/>
-      <c r="E17" s="227" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="227" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="228"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
-      <c r="N17" s="228"/>
-      <c r="O17" s="228"/>
-      <c r="P17" s="229"/>
+      <c r="B17" s="233">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="230"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="232"/>
       <c r="Q17" s="208" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" s="209"/>
       <c r="S17" s="208" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="T17" s="210"/>
       <c r="U17" s="210"/>
@@ -8545,7 +8486,7 @@
       <c r="W17" s="210"/>
       <c r="X17" s="209"/>
       <c r="Y17" s="208" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="210"/>
       <c r="AA17" s="210"/>
@@ -8555,38 +8496,46 @@
       <c r="AE17" s="210"/>
       <c r="AF17" s="209"/>
       <c r="AG17" s="208" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="AH17" s="210"/>
       <c r="AI17" s="209"/>
-      <c r="AJ17" s="208" t="s">
-        <v>56</v>
-      </c>
+      <c r="AJ17" s="208"/>
       <c r="AK17" s="210"/>
       <c r="AL17" s="210"/>
       <c r="AM17" s="209"/>
     </row>
-    <row r="18" spans="1:40" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="233"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
+    <row r="18" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="233">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="224" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="226"/>
+      <c r="E18" s="224" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="224" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="226"/>
       <c r="Q18" s="208" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R18" s="209"/>
       <c r="S18" s="208" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="T18" s="210"/>
       <c r="U18" s="210"/>
@@ -8594,7 +8543,7 @@
       <c r="W18" s="210"/>
       <c r="X18" s="209"/>
       <c r="Y18" s="208" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="Z18" s="210"/>
       <c r="AA18" s="210"/>
@@ -8614,20 +8563,18 @@
       <c r="AM18" s="209"/>
     </row>
     <row r="19" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="227" t="s">
-        <v>76</v>
-      </c>
+      <c r="B19" s="233">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="227"/>
       <c r="D19" s="229"/>
-      <c r="E19" s="227" t="s">
-        <v>27</v>
-      </c>
+      <c r="E19" s="227"/>
       <c r="F19" s="228"/>
       <c r="G19" s="228"/>
       <c r="H19" s="228"/>
       <c r="I19" s="229"/>
-      <c r="J19" s="227" t="s">
-        <v>42</v>
-      </c>
+      <c r="J19" s="227"/>
       <c r="K19" s="228"/>
       <c r="L19" s="228"/>
       <c r="M19" s="228"/>
@@ -8635,11 +8582,11 @@
       <c r="O19" s="228"/>
       <c r="P19" s="229"/>
       <c r="Q19" s="208" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="R19" s="209"/>
       <c r="S19" s="208" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T19" s="210"/>
       <c r="U19" s="210"/>
@@ -8647,7 +8594,7 @@
       <c r="W19" s="210"/>
       <c r="X19" s="209"/>
       <c r="Y19" s="208" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Z19" s="210"/>
       <c r="AA19" s="210"/>
@@ -8667,6 +8614,10 @@
       <c r="AM19" s="209"/>
     </row>
     <row r="20" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="233">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C20" s="230"/>
       <c r="D20" s="232"/>
       <c r="E20" s="230"/>
@@ -8682,11 +8633,11 @@
       <c r="O20" s="231"/>
       <c r="P20" s="232"/>
       <c r="Q20" s="208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" s="209"/>
       <c r="S20" s="208" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T20" s="210"/>
       <c r="U20" s="210"/>
@@ -8694,7 +8645,7 @@
       <c r="W20" s="210"/>
       <c r="X20" s="209"/>
       <c r="Y20" s="208" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Z20" s="210"/>
       <c r="AA20" s="210"/>
@@ -8713,68 +8664,76 @@
       <c r="AL20" s="210"/>
       <c r="AM20" s="209"/>
     </row>
-    <row r="21" spans="1:40" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="233"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="208" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="209"/>
-      <c r="S21" s="208" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="210"/>
-      <c r="U21" s="210"/>
-      <c r="V21" s="210"/>
-      <c r="W21" s="210"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="208" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="210"/>
-      <c r="AA21" s="210"/>
-      <c r="AB21" s="210"/>
-      <c r="AC21" s="210"/>
-      <c r="AD21" s="210"/>
-      <c r="AE21" s="210"/>
-      <c r="AF21" s="209"/>
-      <c r="AG21" s="208" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH21" s="210"/>
-      <c r="AI21" s="209"/>
+    <row r="21" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="233">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="224" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="226"/>
+      <c r="E21" s="224" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="224" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="226"/>
+      <c r="Q21" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="211"/>
+      <c r="S21" s="211" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" s="211"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="211"/>
+      <c r="AG21" s="211" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH21" s="211"/>
+      <c r="AI21" s="211"/>
       <c r="AJ21" s="208"/>
       <c r="AK21" s="210"/>
       <c r="AL21" s="210"/>
       <c r="AM21" s="209"/>
     </row>
     <row r="22" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="227" t="s">
-        <v>96</v>
-      </c>
+      <c r="B22" s="233">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="227"/>
       <c r="D22" s="229"/>
-      <c r="E22" s="227" t="s">
-        <v>90</v>
-      </c>
+      <c r="E22" s="227"/>
       <c r="F22" s="228"/>
       <c r="G22" s="228"/>
       <c r="H22" s="228"/>
       <c r="I22" s="229"/>
-      <c r="J22" s="227" t="s">
-        <v>98</v>
-      </c>
+      <c r="J22" s="227"/>
       <c r="K22" s="228"/>
       <c r="L22" s="228"/>
       <c r="M22" s="228"/>
@@ -8782,11 +8741,11 @@
       <c r="O22" s="228"/>
       <c r="P22" s="229"/>
       <c r="Q22" s="211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R22" s="211"/>
       <c r="S22" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T22" s="211"/>
       <c r="U22" s="211"/>
@@ -8794,7 +8753,7 @@
       <c r="W22" s="211"/>
       <c r="X22" s="211"/>
       <c r="Y22" s="211" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z22" s="211"/>
       <c r="AA22" s="211"/>
@@ -8814,6 +8773,10 @@
       <c r="AM22" s="209"/>
     </row>
     <row r="23" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="233">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="C23" s="230"/>
       <c r="D23" s="232"/>
       <c r="E23" s="230"/>
@@ -8829,11 +8792,11 @@
       <c r="O23" s="231"/>
       <c r="P23" s="232"/>
       <c r="Q23" s="211" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="R23" s="211"/>
       <c r="S23" s="211" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T23" s="211"/>
       <c r="U23" s="211"/>
@@ -8841,7 +8804,7 @@
       <c r="W23" s="211"/>
       <c r="X23" s="211"/>
       <c r="Y23" s="211" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Z23" s="211"/>
       <c r="AA23" s="211"/>
@@ -8860,56 +8823,53 @@
       <c r="AL23" s="210"/>
       <c r="AM23" s="209"/>
     </row>
-    <row r="24" spans="1:40" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="233"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211" t="s">
-        <v>92</v>
-      </c>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="211"/>
-      <c r="AG24" s="211" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="211"/>
-      <c r="AJ24" s="208"/>
-      <c r="AK24" s="210"/>
-      <c r="AL24" s="210"/>
-      <c r="AM24" s="209"/>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8942,7 +8902,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AI25" s="36"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
@@ -8951,42 +8911,46 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="36"/>
+      <c r="B26" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
+      <c r="P26" s="206"/>
+      <c r="Q26" s="206"/>
+      <c r="R26" s="206"/>
+      <c r="S26" s="206"/>
+      <c r="T26" s="206"/>
+      <c r="U26" s="206"/>
+      <c r="V26" s="206"/>
+      <c r="W26" s="206"/>
+      <c r="X26" s="206"/>
+      <c r="Y26" s="206"/>
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="206"/>
+      <c r="AB26" s="206"/>
+      <c r="AC26" s="206"/>
+      <c r="AD26" s="206"/>
+      <c r="AE26" s="206"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="206"/>
+      <c r="AH26" s="206"/>
+      <c r="AI26" s="207"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
@@ -8995,46 +8959,46 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="202" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="206"/>
-      <c r="R27" s="206"/>
-      <c r="S27" s="206"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="206"/>
-      <c r="V27" s="206"/>
-      <c r="W27" s="206"/>
-      <c r="X27" s="206"/>
-      <c r="Y27" s="206"/>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="206"/>
-      <c r="AB27" s="206"/>
-      <c r="AC27" s="206"/>
-      <c r="AD27" s="206"/>
-      <c r="AE27" s="206"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="206"/>
-      <c r="AH27" s="206"/>
-      <c r="AI27" s="207"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="178" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
+      <c r="O27" s="179"/>
+      <c r="P27" s="179"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="179"/>
+      <c r="U27" s="179"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="179"/>
+      <c r="Y27" s="179"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="179"/>
+      <c r="AH27" s="179"/>
+      <c r="AI27" s="180"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
@@ -9043,20 +9007,20 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="181" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="183"/>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
       <c r="J28" s="178" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K28" s="179"/>
       <c r="L28" s="179"/>
@@ -9092,19 +9056,19 @@
     <row r="29" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="10">
-        <v>2</v>
-      </c>
-      <c r="C29" s="178" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="180"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29" s="179"/>
       <c r="L29" s="179"/>
@@ -9139,20 +9103,20 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="10">
-        <v>3</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
       <c r="J30" s="178" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K30" s="179"/>
       <c r="L30" s="179"/>
@@ -9187,11 +9151,11 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="9">
-        <v>4</v>
+      <c r="B31" s="10">
+        <v>5</v>
       </c>
       <c r="C31" s="178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="179"/>
       <c r="E31" s="179"/>
@@ -9200,7 +9164,7 @@
       <c r="H31" s="179"/>
       <c r="I31" s="180"/>
       <c r="J31" s="178" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K31" s="179"/>
       <c r="L31" s="179"/>
@@ -9236,19 +9200,19 @@
     <row r="32" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="10">
-        <v>5</v>
-      </c>
-      <c r="C32" s="178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="183"/>
       <c r="J32" s="178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32" s="179"/>
       <c r="L32" s="179"/>
@@ -9283,46 +9247,46 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="10">
-        <v>6</v>
-      </c>
-      <c r="C33" s="181" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="178" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="179"/>
-      <c r="T33" s="179"/>
-      <c r="U33" s="179"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="179"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="179"/>
-      <c r="AD33" s="179"/>
-      <c r="AE33" s="179"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
+      <c r="B33" s="9">
+        <v>7</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
@@ -9331,46 +9295,40 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
-      <c r="B34" s="9">
-        <v>7</v>
-      </c>
-      <c r="C34" s="184" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="193" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="194"/>
-      <c r="N34" s="194"/>
-      <c r="O34" s="194"/>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="194"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="194"/>
-      <c r="T34" s="194"/>
-      <c r="U34" s="194"/>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
-      <c r="Y34" s="194"/>
-      <c r="Z34" s="194"/>
-      <c r="AA34" s="194"/>
-      <c r="AB34" s="194"/>
-      <c r="AC34" s="194"/>
-      <c r="AD34" s="194"/>
-      <c r="AE34" s="194"/>
-      <c r="AF34" s="194"/>
-      <c r="AG34" s="194"/>
-      <c r="AH34" s="194"/>
-      <c r="AI34" s="195"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="197"/>
+      <c r="U34" s="197"/>
+      <c r="V34" s="197"/>
+      <c r="W34" s="197"/>
+      <c r="X34" s="197"/>
+      <c r="Y34" s="197"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="197"/>
+      <c r="AB34" s="197"/>
+      <c r="AC34" s="197"/>
+      <c r="AD34" s="197"/>
+      <c r="AE34" s="197"/>
+      <c r="AF34" s="197"/>
+      <c r="AG34" s="197"/>
+      <c r="AH34" s="197"/>
+      <c r="AI34" s="198"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
@@ -9380,39 +9338,39 @@
     <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="197"/>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="197"/>
-      <c r="V35" s="197"/>
-      <c r="W35" s="197"/>
-      <c r="X35" s="197"/>
-      <c r="Y35" s="197"/>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-      <c r="AC35" s="197"/>
-      <c r="AD35" s="197"/>
-      <c r="AE35" s="197"/>
-      <c r="AF35" s="197"/>
-      <c r="AG35" s="197"/>
-      <c r="AH35" s="197"/>
-      <c r="AI35" s="198"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="200"/>
+      <c r="O35" s="200"/>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="200"/>
+      <c r="T35" s="200"/>
+      <c r="U35" s="200"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="200"/>
+      <c r="X35" s="200"/>
+      <c r="Y35" s="200"/>
+      <c r="Z35" s="200"/>
+      <c r="AA35" s="200"/>
+      <c r="AB35" s="200"/>
+      <c r="AC35" s="200"/>
+      <c r="AD35" s="200"/>
+      <c r="AE35" s="200"/>
+      <c r="AF35" s="200"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="200"/>
+      <c r="AI35" s="201"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
@@ -9421,97 +9379,56 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="200"/>
-      <c r="M36" s="200"/>
-      <c r="N36" s="200"/>
-      <c r="O36" s="200"/>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="200"/>
-      <c r="R36" s="200"/>
-      <c r="S36" s="200"/>
-      <c r="T36" s="200"/>
-      <c r="U36" s="200"/>
-      <c r="V36" s="200"/>
-      <c r="W36" s="200"/>
-      <c r="X36" s="200"/>
-      <c r="Y36" s="200"/>
-      <c r="Z36" s="200"/>
-      <c r="AA36" s="200"/>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="200"/>
-      <c r="AD36" s="200"/>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="200"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="200"/>
-      <c r="AI36" s="201"/>
+      <c r="B36" s="10">
+        <v>8</v>
+      </c>
+      <c r="C36" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="38"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10">
-        <v>8</v>
-      </c>
-      <c r="C37" s="178" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AJ8:AM9"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ16:AM16"/>
     <mergeCell ref="AJ17:AM17"/>
     <mergeCell ref="AJ18:AM18"/>
     <mergeCell ref="AJ19:AM19"/>
@@ -9519,63 +9436,62 @@
     <mergeCell ref="AJ21:AM21"/>
     <mergeCell ref="AJ22:AM22"/>
     <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AJ9:AM9"/>
     <mergeCell ref="AJ10:AM10"/>
     <mergeCell ref="AJ11:AM11"/>
     <mergeCell ref="AJ12:AM12"/>
     <mergeCell ref="AJ13:AM13"/>
     <mergeCell ref="AJ14:AM14"/>
     <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="J19:P21"/>
-    <mergeCell ref="E10:I12"/>
-    <mergeCell ref="E14:I16"/>
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="E22:I24"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C19:D21"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="J22:P24"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="J17:P18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J18:P20"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="E13:I15"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="E18:I20"/>
+    <mergeCell ref="E21:I23"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="C21:D23"/>
+    <mergeCell ref="J21:P23"/>
+    <mergeCell ref="J13:P15"/>
+    <mergeCell ref="J16:P17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S21:X21"/>
     <mergeCell ref="S22:X22"/>
     <mergeCell ref="S23:X23"/>
-    <mergeCell ref="S24:X24"/>
+    <mergeCell ref="Y21:AF21"/>
     <mergeCell ref="Y22:AF22"/>
     <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:X19"/>
     <mergeCell ref="Y19:AF19"/>
     <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AG9:AI9"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -9583,19 +9499,19 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="J10:P12"/>
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="Y9:AF9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:X10"/>
     <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AG8:AI8"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:X11"/>
     <mergeCell ref="Y11:AF11"/>
     <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AG8:AI9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9604,22 +9520,26 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:I9"/>
-    <mergeCell ref="J8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="S8:X9"/>
-    <mergeCell ref="Y8:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="Y8:AF8"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:AI26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="J27:AI27"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="J28:AI28"/>
-    <mergeCell ref="C29:I29"/>
     <mergeCell ref="J29:AI29"/>
-    <mergeCell ref="J30:AI30"/>
-    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:X14"/>
     <mergeCell ref="Y14:AF14"/>
@@ -9628,23 +9548,19 @@
     <mergeCell ref="S15:X15"/>
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:AI30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="J31:AI31"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="C34:I36"/>
-    <mergeCell ref="J34:AI36"/>
-    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C33:I35"/>
+    <mergeCell ref="J33:AI35"/>
+    <mergeCell ref="C36:I36"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9653,7 +9569,7 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" min="1" max="40" man="1"/>
+    <brk id="20" max="39" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
